--- a/Arquivos/Comparações/Comparações dos valores de m para o graspRVND.xlsx
+++ b/Arquivos/Comparações/Comparações dos valores de m para o graspRVND.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885"/>
+    <workbookView windowWidth="13725" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -171,11 +171,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -194,45 +194,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,7 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,14 +231,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,29 +261,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -322,10 +291,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,8 +321,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,37 +352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +382,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,79 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,43 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,35 +569,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,15 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -640,6 +611,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,157 +653,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,7 +827,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -830,20 +836,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1176,10 +1191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Y55"/>
+  <dimension ref="C3:AH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P11" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5:Y48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1189,22 +1204,22 @@
     <col min="4" max="4" width="19.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7142857142857" style="1"/>
     <col min="6" max="7" width="10.7142857142857" style="1"/>
-    <col min="8" max="8" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7142857142857" style="1"/>
-    <col min="10" max="10" width="9.14285714285714" style="1"/>
-    <col min="11" max="11" width="10.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="13" max="15" width="11.7142857142857" style="1"/>
-    <col min="16" max="17" width="10.7142857142857" style="1"/>
-    <col min="18" max="18" width="9.14285714285714" style="1"/>
-    <col min="19" max="19" width="10.2857142857143" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="21" max="24" width="11.7142857142857" style="1"/>
-    <col min="25" max="25" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="26" max="16382" width="9.14285714285714" style="1"/>
+    <col min="8" max="11" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7142857142857" style="1"/>
+    <col min="13" max="13" width="9.14285714285714" style="1"/>
+    <col min="14" max="14" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="16" max="18" width="11.7142857142857" style="1"/>
+    <col min="19" max="23" width="10.7142857142857" style="1"/>
+    <col min="24" max="24" width="9.14285714285714" style="1"/>
+    <col min="25" max="25" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="27" max="33" width="11.7142857142857" style="1"/>
+    <col min="34" max="34" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="35" max="16383" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15.75" spans="3:25">
+    <row r="3" ht="15.75" spans="3:34">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -1213,33 +1228,42 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="11" t="s">
         <v>1</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="9" t="s">
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="3:25">
+    <row r="4" ht="15.75" spans="3:34">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,47 +1282,74 @@
       <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="N4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="2">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="Q4" s="2">
         <v>4</v>
       </c>
-      <c r="O4" s="2">
+      <c r="R4" s="2">
         <v>6</v>
       </c>
-      <c r="P4" s="2">
+      <c r="S4" s="2">
         <v>8</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="2">
+        <v>10</v>
+      </c>
+      <c r="U4" s="2">
+        <v>15</v>
+      </c>
+      <c r="V4" s="2">
+        <v>20</v>
+      </c>
+      <c r="W4" s="11"/>
+      <c r="Y4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="2">
+      <c r="AA4" s="2">
         <v>2</v>
       </c>
-      <c r="V4" s="2">
+      <c r="AB4" s="2">
         <v>4</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AC4" s="2">
         <v>6</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AD4" s="2">
         <v>8</v>
       </c>
-      <c r="Y4" s="9"/>
+      <c r="AE4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH4" s="11"/>
     </row>
-    <row r="5" ht="15.75" spans="3:25">
+    <row r="5" ht="15.75" spans="3:34">
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1317,55 +1368,83 @@
       <c r="H5" s="4">
         <v>625.31</v>
       </c>
-      <c r="I5" s="10">
-        <v>9661</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="I5" s="4">
+        <v>620.5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>644.36</v>
+      </c>
+      <c r="K5" s="4">
+        <v>658.66</v>
+      </c>
+      <c r="L5" s="12">
+        <f>SMALL(E5:K5,1)</f>
+        <v>610.23</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="11">
+      <c r="O5" s="13">
         <v>140</v>
       </c>
-      <c r="M5" s="4">
+      <c r="P5" s="4">
         <v>1214.85</v>
       </c>
-      <c r="N5" s="4">
+      <c r="Q5" s="4">
         <v>1265.82</v>
       </c>
-      <c r="O5" s="4">
+      <c r="R5" s="4">
         <v>1247.37</v>
       </c>
-      <c r="P5" s="4">
+      <c r="S5" s="4">
         <v>1279.25</v>
       </c>
-      <c r="Q5" s="10">
-        <f>SMALL(M5:P5,1)</f>
+      <c r="T5" s="4">
+        <v>1267.28</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1304.17</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1297.98</v>
+      </c>
+      <c r="W5" s="12">
+        <f>SMALL(P5:V5,1)</f>
         <v>1214.85</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="11">
+      <c r="Z5" s="13">
         <v>210</v>
       </c>
-      <c r="U5" s="4">
+      <c r="AA5" s="4">
         <v>1879.29</v>
       </c>
-      <c r="V5" s="4">
+      <c r="AB5" s="4">
         <v>1892.59</v>
       </c>
-      <c r="W5" s="4">
+      <c r="AC5" s="4">
         <v>1884.18</v>
       </c>
-      <c r="X5" s="4">
+      <c r="AD5" s="4">
         <v>1898.77</v>
       </c>
-      <c r="Y5" s="10">
-        <f>SMALL(U5:X5,1)</f>
+      <c r="AE5" s="4">
+        <v>1929.27</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>1903.67</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>1929.57</v>
+      </c>
+      <c r="AH5" s="12">
+        <f>SMALL(AA5:AG5,1)</f>
         <v>1879.29</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="3:25">
+    <row r="6" ht="15.75" spans="3:34">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1384,56 +1463,83 @@
       <c r="H6" s="4">
         <v>246</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" ref="I6:I48" si="0">SMALL(E6:H6,1)</f>
+      <c r="I6" s="4">
         <v>246</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="4">
+        <v>246</v>
+      </c>
+      <c r="K6" s="4">
+        <v>246</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" ref="L6:L48" si="0">SMALL(E6:K6,1)</f>
+        <v>246</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="11">
+      <c r="O6" s="13">
         <v>14</v>
-      </c>
-      <c r="M6" s="4">
-        <v>546</v>
-      </c>
-      <c r="N6" s="4">
-        <v>546</v>
-      </c>
-      <c r="O6" s="4">
-        <v>546</v>
       </c>
       <c r="P6" s="4">
         <v>546</v>
       </c>
-      <c r="Q6" s="10">
-        <f t="shared" ref="Q6:Q48" si="1">SMALL(M6:P6,1)</f>
+      <c r="Q6" s="4">
         <v>546</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="R6" s="4">
+        <v>546</v>
+      </c>
+      <c r="S6" s="4">
+        <v>546</v>
+      </c>
+      <c r="T6" s="4">
+        <v>546</v>
+      </c>
+      <c r="U6" s="4">
+        <v>546</v>
+      </c>
+      <c r="V6" s="4">
+        <v>546</v>
+      </c>
+      <c r="W6" s="12">
+        <f t="shared" ref="W6:W48" si="1">SMALL(P6:V6,1)</f>
+        <v>546</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="11">
+      <c r="Z6" s="13">
         <v>21</v>
       </c>
-      <c r="U6" s="4">
+      <c r="AA6" s="4">
         <v>918</v>
       </c>
-      <c r="V6" s="4">
+      <c r="AB6" s="4">
         <v>918</v>
       </c>
-      <c r="W6" s="4">
+      <c r="AC6" s="4">
         <v>918</v>
       </c>
-      <c r="X6" s="4">
+      <c r="AD6" s="4">
         <v>918</v>
       </c>
-      <c r="Y6" s="10">
-        <f t="shared" ref="Y6:Y48" si="2">SMALL(U6:X6,1)</f>
+      <c r="AE6" s="4">
         <v>918</v>
       </c>
+      <c r="AF6" s="4">
+        <v>918</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>918</v>
+      </c>
+      <c r="AH6" s="12">
+        <f t="shared" ref="AH6:AH48" si="2">SMALL(AA6:AG6,1)</f>
+        <v>918</v>
+      </c>
     </row>
-    <row r="7" ht="15.75" spans="3:25">
+    <row r="7" ht="15.75" spans="3:34">
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1452,56 +1558,83 @@
       <c r="H7" s="4">
         <v>282</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="4">
+        <v>282</v>
+      </c>
+      <c r="J7" s="4">
+        <v>282</v>
+      </c>
+      <c r="K7" s="4">
+        <v>282</v>
+      </c>
+      <c r="L7" s="12">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="11">
+      <c r="O7" s="13">
         <v>14</v>
-      </c>
-      <c r="M7" s="4">
-        <v>640</v>
-      </c>
-      <c r="N7" s="4">
-        <v>640</v>
-      </c>
-      <c r="O7" s="4">
-        <v>640</v>
       </c>
       <c r="P7" s="4">
         <v>640</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="4">
+        <v>640</v>
+      </c>
+      <c r="R7" s="4">
+        <v>640</v>
+      </c>
+      <c r="S7" s="4">
+        <v>640</v>
+      </c>
+      <c r="T7" s="4">
+        <v>640</v>
+      </c>
+      <c r="U7" s="4">
+        <v>640</v>
+      </c>
+      <c r="V7" s="4">
+        <v>640</v>
+      </c>
+      <c r="W7" s="12">
         <f t="shared" si="1"/>
         <v>640</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="11">
+      <c r="Z7" s="13">
         <v>21</v>
       </c>
-      <c r="U7" s="4">
+      <c r="AA7" s="4">
         <v>1086</v>
       </c>
-      <c r="V7" s="4">
+      <c r="AB7" s="4">
         <v>1086</v>
       </c>
-      <c r="W7" s="4">
+      <c r="AC7" s="4">
         <v>1086</v>
       </c>
-      <c r="X7" s="4">
+      <c r="AD7" s="4">
         <v>1086</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="AE7" s="4">
+        <v>1086</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>1086</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>1086</v>
+      </c>
+      <c r="AH7" s="12">
         <f t="shared" si="2"/>
         <v>1086</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="3:25">
+    <row r="8" ht="15.75" spans="3:34">
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1520,56 +1653,83 @@
       <c r="H8" s="4">
         <v>480.48</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="4">
+        <v>480.48</v>
+      </c>
+      <c r="J8" s="4">
+        <v>480.48</v>
+      </c>
+      <c r="K8" s="4">
+        <v>480.48</v>
+      </c>
+      <c r="L8" s="12">
         <f t="shared" si="0"/>
         <v>480.48</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="11">
+      <c r="O8" s="13">
         <v>26</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1733.82</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1733.82</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1733.82</v>
       </c>
       <c r="P8" s="4">
         <v>1733.82</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="4">
+        <v>1733.82</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1733.82</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1733.82</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1733.82</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1733.82</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1733.82</v>
+      </c>
+      <c r="W8" s="12">
         <f t="shared" si="1"/>
         <v>1733.82</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="11">
+      <c r="Z8" s="13">
         <v>39</v>
       </c>
-      <c r="U8" s="4">
+      <c r="AA8" s="4">
         <v>3853.08</v>
       </c>
-      <c r="V8" s="4">
+      <c r="AB8" s="4">
         <v>3853.08</v>
       </c>
-      <c r="W8" s="4">
+      <c r="AC8" s="4">
         <v>3855.72</v>
       </c>
-      <c r="X8" s="4">
+      <c r="AD8" s="4">
         <v>3855.72</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="AE8" s="4">
+        <v>3855.72</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>3855.72</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>3853.08</v>
+      </c>
+      <c r="AH8" s="12">
         <f t="shared" si="2"/>
         <v>3853.08</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="3:25">
+    <row r="9" ht="15.75" spans="3:34">
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1588,56 +1748,83 @@
       <c r="H9" s="4">
         <v>9665.64</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="4">
+        <v>9660.71</v>
+      </c>
+      <c r="J9" s="4">
+        <v>9660.71</v>
+      </c>
+      <c r="K9" s="4">
+        <v>9670.83</v>
+      </c>
+      <c r="L9" s="12">
         <f t="shared" si="0"/>
         <v>9660.71</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="11">
+      <c r="O9" s="13">
         <v>63</v>
       </c>
-      <c r="M9" s="4">
+      <c r="P9" s="4">
         <v>25415.67</v>
       </c>
-      <c r="N9" s="4">
+      <c r="Q9" s="4">
         <v>24929.87</v>
       </c>
-      <c r="O9" s="4">
+      <c r="R9" s="4">
         <v>25341.46</v>
       </c>
-      <c r="P9" s="4">
+      <c r="S9" s="4">
         <v>25281.42</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="T9" s="4">
+        <v>25347.92</v>
+      </c>
+      <c r="U9" s="4">
+        <v>25618.15</v>
+      </c>
+      <c r="V9" s="4">
+        <v>25572.12</v>
+      </c>
+      <c r="W9" s="12">
         <f t="shared" si="1"/>
         <v>24929.87</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="11">
+      <c r="Z9" s="13">
         <v>95</v>
       </c>
-      <c r="U9" s="4">
+      <c r="AA9" s="4">
         <v>48954.03</v>
       </c>
-      <c r="V9" s="4">
+      <c r="AB9" s="4">
         <v>48293.73</v>
       </c>
-      <c r="W9" s="4">
+      <c r="AC9" s="4">
         <v>49095.34</v>
       </c>
-      <c r="X9" s="4">
+      <c r="AD9" s="4">
         <v>48692.73</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="AE9" s="4">
+        <v>48607.27</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>49497.5</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>49172.37</v>
+      </c>
+      <c r="AH9" s="12">
         <f t="shared" si="2"/>
         <v>48293.73</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="3:25">
+    <row r="10" ht="15.75" spans="3:34">
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1656,56 +1843,83 @@
       <c r="H10" s="4">
         <v>224.88</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="4">
+        <v>224.88</v>
+      </c>
+      <c r="J10" s="4">
+        <v>224.88</v>
+      </c>
+      <c r="K10" s="4">
+        <v>224.88</v>
+      </c>
+      <c r="L10" s="12">
         <f t="shared" si="0"/>
         <v>224.88</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="11">
+      <c r="O10" s="13">
         <v>7</v>
-      </c>
-      <c r="M10" s="4">
-        <v>966.37</v>
-      </c>
-      <c r="N10" s="4">
-        <v>966.37</v>
-      </c>
-      <c r="O10" s="4">
-        <v>966.37</v>
       </c>
       <c r="P10" s="4">
         <v>966.37</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="4">
+        <v>966.37</v>
+      </c>
+      <c r="R10" s="4">
+        <v>966.37</v>
+      </c>
+      <c r="S10" s="4">
+        <v>966.37</v>
+      </c>
+      <c r="T10" s="4">
+        <v>966.37</v>
+      </c>
+      <c r="U10" s="4">
+        <v>966.37</v>
+      </c>
+      <c r="V10" s="4">
+        <v>966.37</v>
+      </c>
+      <c r="W10" s="12">
         <f t="shared" si="1"/>
         <v>966.37</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="11">
+      <c r="Z10" s="13">
         <v>10</v>
       </c>
-      <c r="U10" s="4">
+      <c r="AA10" s="4">
         <v>1528.5</v>
       </c>
-      <c r="V10" s="4">
+      <c r="AB10" s="4">
         <v>1528.5</v>
       </c>
-      <c r="W10" s="4">
+      <c r="AC10" s="4">
         <v>1528.5</v>
       </c>
-      <c r="X10" s="4">
+      <c r="AD10" s="4">
         <v>1528.5</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="AE10" s="4">
+        <v>1528.5</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>1528.5</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>1528.5</v>
+      </c>
+      <c r="AH10" s="12">
         <f t="shared" si="2"/>
         <v>1528.5</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="3:25">
+    <row r="11" ht="15.75" spans="3:34">
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1724,56 +1938,83 @@
       <c r="H11" s="4">
         <v>1012.46</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="4">
+        <v>1033.99</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1026.33</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1039.5</v>
+      </c>
+      <c r="L11" s="12">
         <f t="shared" si="0"/>
         <v>1012.46</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="11">
+      <c r="O11" s="13">
         <v>65</v>
       </c>
-      <c r="M11" s="4">
+      <c r="P11" s="4">
         <v>2392.38</v>
       </c>
-      <c r="N11" s="4">
+      <c r="Q11" s="4">
         <v>2419.82</v>
       </c>
-      <c r="O11" s="4">
+      <c r="R11" s="4">
         <v>2362.12</v>
       </c>
-      <c r="P11" s="4">
+      <c r="S11" s="4">
         <v>2373.38</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="T11" s="4">
+        <v>2384.52</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2442.7</v>
+      </c>
+      <c r="V11" s="4">
+        <v>2374.25</v>
+      </c>
+      <c r="W11" s="12">
         <f t="shared" si="1"/>
         <v>2362.12</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="11">
+      <c r="Z11" s="13">
         <v>97</v>
       </c>
-      <c r="U11" s="4">
+      <c r="AA11" s="4">
         <v>3744.93</v>
       </c>
-      <c r="V11" s="4">
+      <c r="AB11" s="4">
         <v>3757.3</v>
       </c>
-      <c r="W11" s="4">
+      <c r="AC11" s="4">
         <v>3808.77</v>
       </c>
-      <c r="X11" s="4">
+      <c r="AD11" s="4">
         <v>3802.13</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="AE11" s="4">
+        <v>3831.32</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>3856.36</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>3831</v>
+      </c>
+      <c r="AH11" s="12">
         <f t="shared" si="2"/>
         <v>3744.93</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="3:25">
+    <row r="12" ht="15.75" spans="3:34">
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1792,56 +2033,83 @@
       <c r="H12" s="4">
         <v>1228.6</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="4">
+        <v>1253.09</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1199.24</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1233.14</v>
+      </c>
+      <c r="L12" s="12">
         <f t="shared" si="0"/>
         <v>1199.24</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="11">
+      <c r="O12" s="13">
         <v>75</v>
       </c>
-      <c r="M12" s="4">
+      <c r="P12" s="4">
         <v>2783.86</v>
       </c>
-      <c r="N12" s="4">
+      <c r="Q12" s="4">
         <v>2789.33</v>
       </c>
-      <c r="O12" s="4">
+      <c r="R12" s="4">
         <v>2768.27</v>
       </c>
-      <c r="P12" s="4">
+      <c r="S12" s="4">
         <v>2782.98</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="T12" s="4">
+        <v>2782.4</v>
+      </c>
+      <c r="U12" s="4">
+        <v>2780.91</v>
+      </c>
+      <c r="V12" s="4">
+        <v>2840.75</v>
+      </c>
+      <c r="W12" s="12">
         <f t="shared" si="1"/>
         <v>2768.27</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="11">
+      <c r="Z12" s="13">
         <v>112</v>
       </c>
-      <c r="U12" s="4">
+      <c r="AA12" s="4">
         <v>4369.2</v>
       </c>
-      <c r="V12" s="4">
+      <c r="AB12" s="4">
         <v>4313.8</v>
       </c>
-      <c r="W12" s="4">
+      <c r="AC12" s="4">
         <v>4335.39</v>
       </c>
-      <c r="X12" s="4">
+      <c r="AD12" s="4">
         <v>4373.97</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="AE12" s="4">
+        <v>4432.84</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>4339.76</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>4369.45</v>
+      </c>
+      <c r="AH12" s="12">
         <f t="shared" si="2"/>
         <v>4313.8</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="3:25">
+    <row r="13" ht="15.75" spans="3:34">
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1860,56 +2128,83 @@
       <c r="H13" s="4">
         <v>98</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="4">
+        <v>98</v>
+      </c>
+      <c r="J13" s="4">
+        <v>98</v>
+      </c>
+      <c r="K13" s="4">
+        <v>98</v>
+      </c>
+      <c r="L13" s="12">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="11">
+      <c r="O13" s="13">
         <v>21</v>
       </c>
-      <c r="M13" s="4">
+      <c r="P13" s="4">
         <v>218</v>
       </c>
-      <c r="N13" s="4">
+      <c r="Q13" s="4">
         <v>220</v>
       </c>
-      <c r="O13" s="4">
+      <c r="R13" s="4">
         <v>218</v>
       </c>
-      <c r="P13" s="4">
+      <c r="S13" s="4">
         <v>219</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="T13" s="4">
+        <v>218</v>
+      </c>
+      <c r="U13" s="4">
+        <v>220</v>
+      </c>
+      <c r="V13" s="4">
+        <v>220</v>
+      </c>
+      <c r="W13" s="12">
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T13" s="11">
+      <c r="Z13" s="13">
         <v>31</v>
       </c>
-      <c r="U13" s="4">
+      <c r="AA13" s="4">
         <v>388</v>
       </c>
-      <c r="V13" s="4">
+      <c r="AB13" s="4">
         <v>388</v>
       </c>
-      <c r="W13" s="4">
+      <c r="AC13" s="4">
         <v>388</v>
       </c>
-      <c r="X13" s="4">
+      <c r="AD13" s="4">
         <v>388</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="AE13" s="4">
+        <v>388</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>388</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>388</v>
+      </c>
+      <c r="AH13" s="12">
         <f t="shared" si="2"/>
         <v>388</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="3:25">
+    <row r="14" ht="15.75" spans="3:34">
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1928,56 +2223,83 @@
       <c r="H14" s="4">
         <v>71.46</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="4">
+        <v>71.46</v>
+      </c>
+      <c r="J14" s="4">
+        <v>71.46</v>
+      </c>
+      <c r="K14" s="4">
+        <v>71.46</v>
+      </c>
+      <c r="L14" s="12">
         <f t="shared" si="0"/>
         <v>71.46</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="11">
+      <c r="O14" s="13">
         <v>25</v>
       </c>
-      <c r="M14" s="4">
+      <c r="P14" s="4">
         <v>168.63</v>
       </c>
-      <c r="N14" s="4">
+      <c r="Q14" s="4">
         <v>167.76</v>
       </c>
-      <c r="O14" s="4">
+      <c r="R14" s="4">
         <v>167.76</v>
       </c>
-      <c r="P14" s="4">
+      <c r="S14" s="4">
         <v>167.76</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="T14" s="4">
+        <v>167.76</v>
+      </c>
+      <c r="U14" s="4">
+        <v>167.76</v>
+      </c>
+      <c r="V14" s="4">
+        <v>168.63</v>
+      </c>
+      <c r="W14" s="12">
         <f t="shared" si="1"/>
         <v>167.76</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T14" s="11">
+      <c r="Z14" s="13">
         <v>38</v>
       </c>
-      <c r="U14" s="4">
+      <c r="AA14" s="4">
         <v>277.68</v>
       </c>
-      <c r="V14" s="4">
+      <c r="AB14" s="4">
         <v>276.88</v>
       </c>
-      <c r="W14" s="4">
+      <c r="AC14" s="4">
         <v>278.09</v>
       </c>
-      <c r="X14" s="4">
+      <c r="AD14" s="4">
         <v>277.68</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="AE14" s="4">
+        <v>276.88</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>276.88</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>272.79</v>
+      </c>
+      <c r="AH14" s="12">
         <f t="shared" si="2"/>
-        <v>276.88</v>
+        <v>272.79</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="3:25">
+    <row r="15" ht="15.75" spans="3:34">
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1996,56 +2318,83 @@
       <c r="H15" s="4">
         <v>95</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="4">
+        <v>95</v>
+      </c>
+      <c r="J15" s="4">
+        <v>95</v>
+      </c>
+      <c r="K15" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="L15" s="12">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="11">
+      <c r="O15" s="13">
         <v>38</v>
       </c>
-      <c r="M15" s="4">
+      <c r="P15" s="4">
         <v>211.04</v>
       </c>
-      <c r="N15" s="4">
+      <c r="Q15" s="4">
         <v>211.28</v>
       </c>
-      <c r="O15" s="4">
+      <c r="R15" s="4">
         <v>210.51</v>
       </c>
-      <c r="P15" s="4">
+      <c r="S15" s="4">
         <v>209.15</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="T15" s="4">
+        <v>210.23</v>
+      </c>
+      <c r="U15" s="4">
+        <v>207.97</v>
+      </c>
+      <c r="V15" s="4">
+        <v>208.14</v>
+      </c>
+      <c r="W15" s="12">
         <f t="shared" si="1"/>
-        <v>209.15</v>
-      </c>
-      <c r="S15" s="3" t="s">
+        <v>207.97</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="11">
+      <c r="Z15" s="13">
         <v>57</v>
       </c>
-      <c r="U15" s="4">
+      <c r="AA15" s="4">
         <v>332.75</v>
       </c>
-      <c r="V15" s="4">
+      <c r="AB15" s="4">
         <v>337.58</v>
       </c>
-      <c r="W15" s="4">
+      <c r="AC15" s="4">
         <v>335.81</v>
       </c>
-      <c r="X15" s="4">
+      <c r="AD15" s="4">
         <v>334.86</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="AE15" s="4">
+        <v>337.33</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>337.31</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>334.51</v>
+      </c>
+      <c r="AH15" s="12">
         <f t="shared" si="2"/>
         <v>332.75</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="3:25">
+    <row r="16" ht="15.75" spans="3:34">
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
@@ -2064,56 +2413,83 @@
       <c r="H16" s="4">
         <v>95.24</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="4">
+        <v>95.06</v>
+      </c>
+      <c r="J16" s="4">
+        <v>95.06</v>
+      </c>
+      <c r="K16" s="4">
+        <v>95.06</v>
+      </c>
+      <c r="L16" s="12">
         <f t="shared" si="0"/>
         <v>95.06</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="11">
+      <c r="O16" s="13">
         <v>50</v>
       </c>
-      <c r="M16" s="4">
+      <c r="P16" s="4">
         <v>226.95</v>
       </c>
-      <c r="N16" s="4">
+      <c r="Q16" s="4">
         <v>226.53</v>
       </c>
-      <c r="O16" s="4">
+      <c r="R16" s="4">
         <v>227.02</v>
       </c>
-      <c r="P16" s="4">
+      <c r="S16" s="4">
         <v>224.56</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="T16" s="4">
+        <v>223.14</v>
+      </c>
+      <c r="U16" s="4">
+        <v>222.78</v>
+      </c>
+      <c r="V16" s="4">
+        <v>227.4</v>
+      </c>
+      <c r="W16" s="12">
         <f t="shared" si="1"/>
-        <v>224.56</v>
-      </c>
-      <c r="S16" s="3" t="s">
+        <v>222.78</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T16" s="11">
+      <c r="Z16" s="13">
         <v>75</v>
       </c>
-      <c r="U16" s="4">
+      <c r="AA16" s="4">
         <v>392.02</v>
       </c>
-      <c r="V16" s="4">
+      <c r="AB16" s="4">
         <v>394.37</v>
       </c>
-      <c r="W16" s="4">
+      <c r="AC16" s="4">
         <v>394.9</v>
       </c>
-      <c r="X16" s="4">
+      <c r="AD16" s="4">
         <v>395.72</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="AE16" s="4">
+        <v>390.63</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>392.8</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>392.77</v>
+      </c>
+      <c r="AH16" s="12">
         <f t="shared" si="2"/>
-        <v>392.02</v>
+        <v>390.63</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="3:25">
+    <row r="17" ht="15.75" spans="3:34">
       <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2132,56 +2508,83 @@
       <c r="H17" s="4">
         <v>145</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="4">
+        <v>145</v>
+      </c>
+      <c r="J17" s="4">
+        <v>145</v>
+      </c>
+      <c r="K17" s="4">
+        <v>145</v>
+      </c>
+      <c r="L17" s="12">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="11">
+      <c r="O17" s="13">
         <v>13</v>
-      </c>
-      <c r="M17" s="4">
-        <v>308</v>
-      </c>
-      <c r="N17" s="4">
-        <v>308</v>
-      </c>
-      <c r="O17" s="4">
-        <v>308</v>
       </c>
       <c r="P17" s="4">
         <v>308</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="4">
+        <v>308</v>
+      </c>
+      <c r="R17" s="4">
+        <v>308</v>
+      </c>
+      <c r="S17" s="4">
+        <v>308</v>
+      </c>
+      <c r="T17" s="4">
+        <v>308</v>
+      </c>
+      <c r="U17" s="4">
+        <v>308</v>
+      </c>
+      <c r="V17" s="4">
+        <v>308</v>
+      </c>
+      <c r="W17" s="12">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T17" s="11">
+      <c r="Z17" s="13">
         <v>19</v>
       </c>
-      <c r="U17" s="4">
+      <c r="AA17" s="4">
         <v>492</v>
       </c>
-      <c r="V17" s="4">
+      <c r="AB17" s="4">
         <v>492</v>
       </c>
-      <c r="W17" s="4">
+      <c r="AC17" s="4">
         <v>492</v>
       </c>
-      <c r="X17" s="4">
+      <c r="AD17" s="4">
         <v>492</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="AE17" s="4">
+        <v>492</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>492</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>492</v>
+      </c>
+      <c r="AH17" s="12">
         <f t="shared" si="2"/>
         <v>492</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="3:25">
+    <row r="18" ht="15.75" spans="3:34">
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
@@ -2200,56 +2603,83 @@
       <c r="H18" s="4">
         <v>486.75</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="4">
+        <v>485.41</v>
+      </c>
+      <c r="J18" s="4">
+        <v>488.51</v>
+      </c>
+      <c r="K18" s="4">
+        <v>490.44</v>
+      </c>
+      <c r="L18" s="12">
         <f t="shared" si="0"/>
         <v>479.28</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="11">
+      <c r="O18" s="13">
         <v>131</v>
       </c>
-      <c r="M18" s="4">
+      <c r="P18" s="4">
         <v>1014.59</v>
       </c>
-      <c r="N18" s="4">
+      <c r="Q18" s="4">
         <v>976.51</v>
       </c>
-      <c r="O18" s="4">
+      <c r="R18" s="4">
         <v>1021.85</v>
       </c>
-      <c r="P18" s="4">
+      <c r="S18" s="4">
         <v>1010.55</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="T18" s="4">
+        <v>1009.69</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1016.48</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1039.36</v>
+      </c>
+      <c r="W18" s="12">
         <f t="shared" si="1"/>
         <v>976.51</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T18" s="11">
+      <c r="Z18" s="13">
         <v>196</v>
       </c>
-      <c r="U18" s="4">
+      <c r="AA18" s="4">
         <v>1597.38</v>
       </c>
-      <c r="V18" s="4">
+      <c r="AB18" s="4">
         <v>1594.02</v>
       </c>
-      <c r="W18" s="4">
+      <c r="AC18" s="4">
         <v>1589.93</v>
       </c>
-      <c r="X18" s="4">
+      <c r="AD18" s="4">
         <v>1599.86</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="AE18" s="4">
+        <v>1609.77</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>1583.54</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>1610.72</v>
+      </c>
+      <c r="AH18" s="12">
         <f t="shared" si="2"/>
-        <v>1589.93</v>
+        <v>1583.54</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="3:25">
+    <row r="19" ht="15.75" spans="3:34">
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
@@ -2268,56 +2698,83 @@
       <c r="H19" s="4">
         <v>143</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="4">
+        <v>143</v>
+      </c>
+      <c r="J19" s="4">
+        <v>143</v>
+      </c>
+      <c r="K19" s="4">
+        <v>143</v>
+      </c>
+      <c r="L19" s="12">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="11">
+      <c r="O19" s="13">
         <v>8</v>
-      </c>
-      <c r="M19" s="4">
-        <v>359</v>
-      </c>
-      <c r="N19" s="4">
-        <v>359</v>
-      </c>
-      <c r="O19" s="4">
-        <v>359</v>
       </c>
       <c r="P19" s="4">
         <v>359</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="4">
+        <v>359</v>
+      </c>
+      <c r="R19" s="4">
+        <v>359</v>
+      </c>
+      <c r="S19" s="4">
+        <v>359</v>
+      </c>
+      <c r="T19" s="4">
+        <v>359</v>
+      </c>
+      <c r="U19" s="4">
+        <v>359</v>
+      </c>
+      <c r="V19" s="4">
+        <v>359</v>
+      </c>
+      <c r="W19" s="12">
         <f t="shared" si="1"/>
         <v>359</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T19" s="11">
+      <c r="Z19" s="13">
         <v>12</v>
       </c>
-      <c r="U19" s="4">
+      <c r="AA19" s="4">
         <v>640</v>
       </c>
-      <c r="V19" s="4">
+      <c r="AB19" s="4">
         <v>640</v>
       </c>
-      <c r="W19" s="4">
+      <c r="AC19" s="4">
         <v>640</v>
       </c>
-      <c r="X19" s="4">
+      <c r="AD19" s="4">
         <v>640</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="AE19" s="4">
+        <v>640</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>640</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>640</v>
+      </c>
+      <c r="AH19" s="12">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="3:25">
+    <row r="20" ht="15.75" spans="3:34">
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -2336,56 +2793,83 @@
       <c r="H20" s="4">
         <v>181</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="4">
+        <v>181</v>
+      </c>
+      <c r="J20" s="4">
+        <v>181</v>
+      </c>
+      <c r="K20" s="4">
+        <v>181</v>
+      </c>
+      <c r="L20" s="12">
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="11">
+      <c r="O20" s="13">
         <v>10</v>
-      </c>
-      <c r="M20" s="4">
-        <v>683</v>
-      </c>
-      <c r="N20" s="4">
-        <v>683</v>
-      </c>
-      <c r="O20" s="4">
-        <v>683</v>
       </c>
       <c r="P20" s="4">
         <v>683</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="4">
+        <v>683</v>
+      </c>
+      <c r="R20" s="4">
+        <v>683</v>
+      </c>
+      <c r="S20" s="4">
+        <v>683</v>
+      </c>
+      <c r="T20" s="4">
+        <v>683</v>
+      </c>
+      <c r="U20" s="4">
+        <v>683</v>
+      </c>
+      <c r="V20" s="4">
+        <v>683</v>
+      </c>
+      <c r="W20" s="12">
         <f t="shared" si="1"/>
         <v>683</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="11">
+      <c r="Z20" s="13">
         <v>15</v>
       </c>
-      <c r="U20" s="4">
+      <c r="AA20" s="4">
         <v>1276</v>
       </c>
-      <c r="V20" s="4">
+      <c r="AB20" s="4">
         <v>1276</v>
       </c>
-      <c r="W20" s="4">
+      <c r="AC20" s="4">
         <v>1276</v>
       </c>
-      <c r="X20" s="4">
+      <c r="AD20" s="4">
         <v>1276</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="AE20" s="4">
+        <v>1276</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>1276</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>1276</v>
+      </c>
+      <c r="AH20" s="12">
         <f t="shared" si="2"/>
         <v>1276</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="3:25">
+    <row r="21" ht="15.75" spans="3:34">
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -2404,56 +2888,83 @@
       <c r="H21" s="4">
         <v>162</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="4">
+        <v>162</v>
+      </c>
+      <c r="J21" s="4">
+        <v>162</v>
+      </c>
+      <c r="K21" s="4">
+        <v>162</v>
+      </c>
+      <c r="L21" s="12">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="11">
+      <c r="O21" s="13">
         <v>12</v>
-      </c>
-      <c r="M21" s="4">
-        <v>396</v>
-      </c>
-      <c r="N21" s="4">
-        <v>396</v>
-      </c>
-      <c r="O21" s="4">
-        <v>396</v>
       </c>
       <c r="P21" s="4">
         <v>396</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="4">
+        <v>396</v>
+      </c>
+      <c r="R21" s="4">
+        <v>396</v>
+      </c>
+      <c r="S21" s="4">
+        <v>396</v>
+      </c>
+      <c r="T21" s="4">
+        <v>396</v>
+      </c>
+      <c r="U21" s="4">
+        <v>396</v>
+      </c>
+      <c r="V21" s="4">
+        <v>396</v>
+      </c>
+      <c r="W21" s="12">
         <f t="shared" si="1"/>
         <v>396</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T21" s="11">
+      <c r="Z21" s="13">
         <v>18</v>
       </c>
-      <c r="U21" s="4">
+      <c r="AA21" s="4">
         <v>748</v>
       </c>
-      <c r="V21" s="4">
+      <c r="AB21" s="4">
         <v>748</v>
       </c>
-      <c r="W21" s="4">
+      <c r="AC21" s="4">
         <v>748</v>
       </c>
-      <c r="X21" s="4">
+      <c r="AD21" s="4">
         <v>748</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="AE21" s="4">
+        <v>748</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>748</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>748</v>
+      </c>
+      <c r="AH21" s="12">
         <f t="shared" si="2"/>
         <v>748</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="3:25">
+    <row r="22" ht="15.75" spans="3:34">
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -2472,56 +2983,83 @@
       <c r="H22" s="4">
         <v>558</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="4">
+        <v>558</v>
+      </c>
+      <c r="J22" s="4">
+        <v>558</v>
+      </c>
+      <c r="K22" s="4">
+        <v>558</v>
+      </c>
+      <c r="L22" s="12">
         <f t="shared" si="0"/>
         <v>558</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="11">
+      <c r="O22" s="13">
         <v>24</v>
       </c>
-      <c r="M22" s="4">
+      <c r="P22" s="4">
         <v>1659</v>
       </c>
-      <c r="N22" s="4">
+      <c r="Q22" s="4">
         <v>1659</v>
       </c>
-      <c r="O22" s="4">
+      <c r="R22" s="4">
         <v>1659</v>
       </c>
-      <c r="P22" s="4">
+      <c r="S22" s="4">
         <v>1666</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="T22" s="4">
+        <v>1666</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1659</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1666</v>
+      </c>
+      <c r="W22" s="12">
         <f t="shared" si="1"/>
         <v>1659</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="11">
+      <c r="Z22" s="13">
         <v>36</v>
       </c>
-      <c r="U22" s="4">
+      <c r="AA22" s="4">
         <v>2926</v>
       </c>
-      <c r="V22" s="4">
+      <c r="AB22" s="4">
         <v>2926</v>
       </c>
-      <c r="W22" s="4">
+      <c r="AC22" s="4">
         <v>2909</v>
       </c>
-      <c r="X22" s="4">
+      <c r="AD22" s="4">
         <v>2909</v>
       </c>
-      <c r="Y22" s="10">
+      <c r="AE22" s="4">
+        <v>2929</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>2909</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>2909</v>
+      </c>
+      <c r="AH22" s="12">
         <f t="shared" si="2"/>
         <v>2909</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="3:25">
+    <row r="23" ht="15.75" spans="3:34">
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -2540,56 +3078,83 @@
       <c r="H23" s="4">
         <v>9270.86</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="4">
+        <v>9247.28</v>
+      </c>
+      <c r="J23" s="4">
+        <v>9392.81</v>
+      </c>
+      <c r="K23" s="4">
+        <v>9691.96</v>
+      </c>
+      <c r="L23" s="12">
         <f t="shared" si="0"/>
         <v>9247.28</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="11">
+      <c r="O23" s="13">
         <v>48</v>
       </c>
-      <c r="M23" s="4">
+      <c r="P23" s="4">
         <v>20276.2</v>
       </c>
-      <c r="N23" s="4">
+      <c r="Q23" s="4">
         <v>20276.2</v>
       </c>
-      <c r="O23" s="4">
+      <c r="R23" s="4">
         <v>20277.57</v>
       </c>
-      <c r="P23" s="4">
+      <c r="S23" s="4">
         <v>20277.57</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="T23" s="4">
+        <v>20451.69</v>
+      </c>
+      <c r="U23" s="4">
+        <v>21252.09</v>
+      </c>
+      <c r="V23" s="4">
+        <v>21173.81</v>
+      </c>
+      <c r="W23" s="12">
         <f t="shared" si="1"/>
         <v>20276.2</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T23" s="11">
+      <c r="Z23" s="13">
         <v>72</v>
       </c>
-      <c r="U23" s="4">
+      <c r="AA23" s="4">
         <v>32191.47</v>
       </c>
-      <c r="V23" s="4">
+      <c r="AB23" s="4">
         <v>32061.5</v>
       </c>
-      <c r="W23" s="4">
+      <c r="AC23" s="4">
         <v>32137.78</v>
       </c>
-      <c r="X23" s="4">
+      <c r="AD23" s="4">
         <v>32137.78</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="AE23" s="4">
+        <v>32159.9</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>32195.73</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>32129.09</v>
+      </c>
+      <c r="AH23" s="12">
         <f t="shared" si="2"/>
         <v>32061.5</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="3:25">
+    <row r="24" ht="15.75" spans="3:34">
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
@@ -2608,56 +3173,83 @@
       <c r="H24" s="4">
         <v>2041</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="4">
+        <v>2015</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2094</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1985</v>
+      </c>
+      <c r="L24" s="12">
         <f t="shared" si="0"/>
         <v>1954</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="11">
+      <c r="O24" s="13">
         <v>24</v>
-      </c>
-      <c r="M24" s="4">
-        <v>3990</v>
-      </c>
-      <c r="N24" s="4">
-        <v>3990</v>
-      </c>
-      <c r="O24" s="4">
-        <v>3990</v>
       </c>
       <c r="P24" s="4">
         <v>3990</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="4">
+        <v>3990</v>
+      </c>
+      <c r="R24" s="4">
+        <v>3990</v>
+      </c>
+      <c r="S24" s="4">
+        <v>3990</v>
+      </c>
+      <c r="T24" s="4">
+        <v>3990</v>
+      </c>
+      <c r="U24" s="4">
+        <v>3990</v>
+      </c>
+      <c r="V24" s="4">
+        <v>3990</v>
+      </c>
+      <c r="W24" s="12">
         <f t="shared" si="1"/>
         <v>3990</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="11">
+      <c r="Z24" s="13">
         <v>36</v>
       </c>
-      <c r="U24" s="4">
+      <c r="AA24" s="4">
         <v>6838</v>
       </c>
-      <c r="V24" s="4">
+      <c r="AB24" s="4">
         <v>6838</v>
       </c>
-      <c r="W24" s="4">
+      <c r="AC24" s="4">
         <v>6849</v>
       </c>
-      <c r="X24" s="4">
+      <c r="AD24" s="4">
         <v>6817</v>
       </c>
-      <c r="Y24" s="10">
+      <c r="AE24" s="4">
+        <v>6814</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>6814</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>6838</v>
+      </c>
+      <c r="AH24" s="12">
         <f t="shared" si="2"/>
-        <v>6817</v>
+        <v>6814</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="3:25">
+    <row r="25" ht="15.75" spans="3:34">
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
@@ -2676,56 +3268,83 @@
       <c r="H25" s="4">
         <v>4073.53</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="4">
+        <v>4206.45</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4073.53</v>
+      </c>
+      <c r="K25" s="4">
+        <v>4139.21</v>
+      </c>
+      <c r="L25" s="12">
         <f t="shared" si="0"/>
         <v>4073.53</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="11">
+      <c r="O25" s="13">
         <v>50</v>
       </c>
-      <c r="M25" s="4">
+      <c r="P25" s="4">
         <v>8608.32</v>
       </c>
-      <c r="N25" s="4">
+      <c r="Q25" s="4">
         <v>8648.33</v>
       </c>
-      <c r="O25" s="4">
+      <c r="R25" s="4">
         <v>8608.32</v>
       </c>
-      <c r="P25" s="4">
+      <c r="S25" s="4">
         <v>8625.62</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="T25" s="4">
+        <v>8818.69</v>
+      </c>
+      <c r="U25" s="4">
+        <v>8770.26</v>
+      </c>
+      <c r="V25" s="4">
+        <v>8598.83</v>
+      </c>
+      <c r="W25" s="12">
         <f t="shared" si="1"/>
-        <v>8608.32</v>
-      </c>
-      <c r="S25" s="3" t="s">
+        <v>8598.83</v>
+      </c>
+      <c r="Y25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T25" s="11">
+      <c r="Z25" s="13">
         <v>75</v>
       </c>
-      <c r="U25" s="4">
+      <c r="AA25" s="4">
         <v>13817.28</v>
       </c>
-      <c r="V25" s="4">
+      <c r="AB25" s="4">
         <v>13852.55</v>
       </c>
-      <c r="W25" s="4">
+      <c r="AC25" s="4">
         <v>14030.22</v>
       </c>
-      <c r="X25" s="4">
+      <c r="AD25" s="4">
         <v>13964.97</v>
       </c>
-      <c r="Y25" s="10">
+      <c r="AE25" s="4">
+        <v>13863.25</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>13854.51</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>13930.74</v>
+      </c>
+      <c r="AH25" s="12">
         <f t="shared" si="2"/>
         <v>13817.28</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="3:25">
+    <row r="26" ht="15.75" spans="3:34">
       <c r="C26" s="3" t="s">
         <v>26</v>
       </c>
@@ -2744,56 +3363,83 @@
       <c r="H26" s="4">
         <v>4984.49</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="4">
+        <v>5144.38</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5015.72</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5155.85</v>
+      </c>
+      <c r="L26" s="12">
         <f t="shared" si="0"/>
         <v>4984.49</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="11">
+      <c r="O26" s="13">
         <v>75</v>
       </c>
-      <c r="M26" s="4">
+      <c r="P26" s="4">
         <v>10731.55</v>
       </c>
-      <c r="N26" s="4">
+      <c r="Q26" s="4">
         <v>10848.12</v>
       </c>
-      <c r="O26" s="4">
+      <c r="R26" s="4">
         <v>10912.65</v>
       </c>
-      <c r="P26" s="4">
+      <c r="S26" s="4">
         <v>10956.98</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="T26" s="4">
+        <v>10895.75</v>
+      </c>
+      <c r="U26" s="4">
+        <v>11283.29</v>
+      </c>
+      <c r="V26" s="4">
+        <v>10787.8</v>
+      </c>
+      <c r="W26" s="12">
         <f t="shared" si="1"/>
         <v>10731.55</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T26" s="11">
+      <c r="Z26" s="13">
         <v>112</v>
       </c>
-      <c r="U26" s="4">
+      <c r="AA26" s="4">
         <v>17284.81</v>
       </c>
-      <c r="V26" s="4">
+      <c r="AB26" s="4">
         <v>17295.29</v>
       </c>
-      <c r="W26" s="4">
+      <c r="AC26" s="4">
         <v>17305.73</v>
       </c>
-      <c r="X26" s="4">
+      <c r="AD26" s="4">
         <v>17532.38</v>
       </c>
-      <c r="Y26" s="10">
+      <c r="AE26" s="4">
+        <v>17473.66</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>17343.18</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>17292.45</v>
+      </c>
+      <c r="AH26" s="12">
         <f t="shared" si="2"/>
         <v>17284.81</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="3:25">
+    <row r="27" ht="15.75" spans="3:34">
       <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
@@ -2812,56 +3458,83 @@
       <c r="H27" s="4">
         <v>5663.85</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="4">
+        <v>5733.31</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5707.67</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5742.72</v>
+      </c>
+      <c r="L27" s="12">
         <f t="shared" si="0"/>
         <v>5614.69</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="11">
+      <c r="O27" s="13">
         <v>100</v>
       </c>
-      <c r="M27" s="4">
+      <c r="P27" s="4">
         <v>12162.98</v>
       </c>
-      <c r="N27" s="4">
+      <c r="Q27" s="4">
         <v>12064.71</v>
       </c>
-      <c r="O27" s="4">
+      <c r="R27" s="4">
         <v>12487.57</v>
       </c>
-      <c r="P27" s="4">
+      <c r="S27" s="4">
         <v>12421.3</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="T27" s="4">
+        <v>12815.33</v>
+      </c>
+      <c r="U27" s="4">
+        <v>12635.92</v>
+      </c>
+      <c r="V27" s="4">
+        <v>12980.81</v>
+      </c>
+      <c r="W27" s="12">
         <f t="shared" si="1"/>
         <v>12064.71</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="Y27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T27" s="11">
+      <c r="Z27" s="13">
         <v>150</v>
       </c>
-      <c r="U27" s="4">
+      <c r="AA27" s="4">
         <v>19257.01</v>
       </c>
-      <c r="V27" s="4">
+      <c r="AB27" s="4">
         <v>19725.51</v>
       </c>
-      <c r="W27" s="4">
+      <c r="AC27" s="4">
         <v>19638.24</v>
       </c>
-      <c r="X27" s="4">
+      <c r="AD27" s="4">
         <v>19691.24</v>
       </c>
-      <c r="Y27" s="10">
+      <c r="AE27" s="4">
+        <v>19749.34</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>19921.11</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>19836.85</v>
+      </c>
+      <c r="AH27" s="12">
         <f t="shared" si="2"/>
         <v>19257.01</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="3:25">
+    <row r="28" ht="15.75" spans="3:34">
       <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
@@ -2880,56 +3553,83 @@
       <c r="H28" s="4">
         <v>3906.44</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="4">
+        <v>3874.68</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3884.48</v>
+      </c>
+      <c r="K28" s="4">
+        <v>3961.13</v>
+      </c>
+      <c r="L28" s="12">
         <f t="shared" si="0"/>
-        <v>3906.44</v>
-      </c>
-      <c r="K28" s="3" t="s">
+        <v>3874.68</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="11">
+      <c r="O28" s="13">
         <v>50</v>
       </c>
-      <c r="M28" s="4">
+      <c r="P28" s="4">
         <v>8635.93</v>
       </c>
-      <c r="N28" s="4">
+      <c r="Q28" s="4">
         <v>8716</v>
       </c>
-      <c r="O28" s="4">
+      <c r="R28" s="4">
         <v>8651.46</v>
       </c>
-      <c r="P28" s="4">
+      <c r="S28" s="4">
         <v>8803.62</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="T28" s="4">
+        <v>8838.23</v>
+      </c>
+      <c r="U28" s="4">
+        <v>8909.46</v>
+      </c>
+      <c r="V28" s="4">
+        <v>8918.16</v>
+      </c>
+      <c r="W28" s="12">
         <f t="shared" si="1"/>
         <v>8635.93</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="Y28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T28" s="11">
+      <c r="Z28" s="13">
         <v>75</v>
       </c>
-      <c r="U28" s="4">
+      <c r="AA28" s="4">
         <v>14056.37</v>
       </c>
-      <c r="V28" s="4">
+      <c r="AB28" s="4">
         <v>14361.36</v>
       </c>
-      <c r="W28" s="4">
+      <c r="AC28" s="4">
         <v>14367.53</v>
       </c>
-      <c r="X28" s="4">
+      <c r="AD28" s="4">
         <v>14176.93</v>
       </c>
-      <c r="Y28" s="10">
+      <c r="AE28" s="4">
+        <v>14332.55</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>14399.64</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>14407.57</v>
+      </c>
+      <c r="AH28" s="12">
         <f t="shared" si="2"/>
         <v>14056.37</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="3:25">
+    <row r="29" ht="15.75" spans="3:34">
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2948,56 +3648,83 @@
       <c r="H29" s="4">
         <v>4970.27</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="4">
+        <v>4899.33</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4978.31</v>
+      </c>
+      <c r="K29" s="4">
+        <v>4995.79</v>
+      </c>
+      <c r="L29" s="12">
         <f t="shared" si="0"/>
         <v>4874.12</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="11">
+      <c r="O29" s="13">
         <v>75</v>
       </c>
-      <c r="M29" s="4">
+      <c r="P29" s="4">
         <v>11122.97</v>
       </c>
-      <c r="N29" s="4">
+      <c r="Q29" s="4">
         <v>10812.69</v>
       </c>
-      <c r="O29" s="4">
+      <c r="R29" s="4">
         <v>11114.21</v>
       </c>
-      <c r="P29" s="4">
+      <c r="S29" s="4">
         <v>11110.57</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="T29" s="4">
+        <v>10927.29</v>
+      </c>
+      <c r="U29" s="4">
+        <v>11223.65</v>
+      </c>
+      <c r="V29" s="4">
+        <v>11241.43</v>
+      </c>
+      <c r="W29" s="12">
         <f t="shared" si="1"/>
         <v>10812.69</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T29" s="11">
+      <c r="Z29" s="13">
         <v>112</v>
       </c>
-      <c r="U29" s="4">
+      <c r="AA29" s="4">
         <v>16699.58</v>
       </c>
-      <c r="V29" s="4">
+      <c r="AB29" s="4">
         <v>16675.95</v>
       </c>
-      <c r="W29" s="4">
+      <c r="AC29" s="4">
         <v>16852.8</v>
       </c>
-      <c r="X29" s="4">
+      <c r="AD29" s="4">
         <v>16859.48</v>
       </c>
-      <c r="Y29" s="10">
+      <c r="AE29" s="4">
+        <v>16797.25</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>16696.07</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>16821.48</v>
+      </c>
+      <c r="AH29" s="12">
         <f t="shared" si="2"/>
         <v>16675.95</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="3:25">
+    <row r="30" ht="15.75" spans="3:34">
       <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
@@ -3016,56 +3743,83 @@
       <c r="H30" s="4">
         <v>5576.55</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="4">
+        <v>5584.25</v>
+      </c>
+      <c r="J30" s="4">
+        <v>5813.83</v>
+      </c>
+      <c r="K30" s="4">
+        <v>5865.38</v>
+      </c>
+      <c r="L30" s="12">
         <f t="shared" si="0"/>
         <v>5569.33</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="11">
+      <c r="O30" s="13">
         <v>100</v>
       </c>
-      <c r="M30" s="4">
+      <c r="P30" s="4">
         <v>12404</v>
       </c>
-      <c r="N30" s="4">
+      <c r="Q30" s="4">
         <v>12191.71</v>
       </c>
-      <c r="O30" s="4">
+      <c r="R30" s="4">
         <v>12184.83</v>
       </c>
-      <c r="P30" s="4">
+      <c r="S30" s="4">
         <v>12244.38</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="T30" s="4">
+        <v>12176.84</v>
+      </c>
+      <c r="U30" s="4">
+        <v>12541.54</v>
+      </c>
+      <c r="V30" s="4">
+        <v>12546.21</v>
+      </c>
+      <c r="W30" s="12">
         <f t="shared" si="1"/>
-        <v>12184.83</v>
-      </c>
-      <c r="S30" s="3" t="s">
+        <v>12176.84</v>
+      </c>
+      <c r="Y30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T30" s="11">
+      <c r="Z30" s="13">
         <v>150</v>
       </c>
-      <c r="U30" s="4">
+      <c r="AA30" s="4">
         <v>18962.88</v>
       </c>
-      <c r="V30" s="4">
+      <c r="AB30" s="4">
         <v>19476.39</v>
       </c>
-      <c r="W30" s="4">
+      <c r="AC30" s="4">
         <v>19351.47</v>
       </c>
-      <c r="X30" s="4">
+      <c r="AD30" s="4">
         <v>18729.45</v>
       </c>
-      <c r="Y30" s="10">
+      <c r="AE30" s="4">
+        <v>19269.33</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>19324.79</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>19256.82</v>
+      </c>
+      <c r="AH30" s="12">
         <f t="shared" si="2"/>
         <v>18729.45</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="3:25">
+    <row r="31" ht="15.75" spans="3:34">
       <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
@@ -3084,56 +3838,83 @@
       <c r="H31" s="4">
         <v>3902.94</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="4">
+        <v>4000.67</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3902.94</v>
+      </c>
+      <c r="K31" s="4">
+        <v>4021.19</v>
+      </c>
+      <c r="L31" s="12">
         <f t="shared" si="0"/>
         <v>3837.23</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="11">
+      <c r="O31" s="13">
         <v>50</v>
       </c>
-      <c r="M31" s="4">
+      <c r="P31" s="4">
         <v>8632.68</v>
       </c>
-      <c r="N31" s="4">
+      <c r="Q31" s="4">
         <v>8566.37</v>
       </c>
-      <c r="O31" s="4">
+      <c r="R31" s="4">
         <v>8566.37</v>
       </c>
-      <c r="P31" s="4">
+      <c r="S31" s="4">
         <v>8657.26</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="T31" s="4">
+        <v>8566.37</v>
+      </c>
+      <c r="U31" s="4">
+        <v>8566.37</v>
+      </c>
+      <c r="V31" s="4">
+        <v>8837.06</v>
+      </c>
+      <c r="W31" s="12">
         <f t="shared" si="1"/>
         <v>8566.37</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="Y31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T31" s="11">
+      <c r="Z31" s="13">
         <v>75</v>
       </c>
-      <c r="U31" s="4">
+      <c r="AA31" s="4">
         <v>13186.89</v>
       </c>
-      <c r="V31" s="4">
+      <c r="AB31" s="4">
         <v>13185.26</v>
       </c>
-      <c r="W31" s="4">
+      <c r="AC31" s="4">
         <v>13096.01</v>
       </c>
-      <c r="X31" s="4">
+      <c r="AD31" s="4">
         <v>13198.92</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="AE31" s="4">
+        <v>13349.38</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>13276.15</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>13185.26</v>
+      </c>
+      <c r="AH31" s="12">
         <f t="shared" si="2"/>
         <v>13096.01</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="3:25">
+    <row r="32" ht="15.75" spans="3:34">
       <c r="C32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3152,56 +3933,83 @@
       <c r="H32" s="4">
         <v>3937.58</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="4">
+        <v>3937.58</v>
+      </c>
+      <c r="J32" s="4">
+        <v>3937.58</v>
+      </c>
+      <c r="K32" s="4">
+        <v>3937.58</v>
+      </c>
+      <c r="L32" s="12">
         <f t="shared" si="0"/>
         <v>3905.21</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="11">
+      <c r="O32" s="13">
         <v>50</v>
       </c>
-      <c r="M32" s="4">
+      <c r="P32" s="4">
         <v>8532.14</v>
       </c>
-      <c r="N32" s="4">
+      <c r="Q32" s="4">
         <v>8439.6</v>
       </c>
-      <c r="O32" s="4">
+      <c r="R32" s="4">
         <v>8540.59</v>
       </c>
-      <c r="P32" s="4">
+      <c r="S32" s="4">
         <v>8435.7</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="T32" s="4">
+        <v>8433.87</v>
+      </c>
+      <c r="U32" s="4">
+        <v>8549.71</v>
+      </c>
+      <c r="V32" s="4">
+        <v>8412.5</v>
+      </c>
+      <c r="W32" s="12">
         <f t="shared" si="1"/>
-        <v>8435.7</v>
-      </c>
-      <c r="S32" s="3" t="s">
+        <v>8412.5</v>
+      </c>
+      <c r="Y32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="11">
+      <c r="Z32" s="13">
         <v>75</v>
       </c>
-      <c r="U32" s="4">
+      <c r="AA32" s="4">
         <v>14048.07</v>
       </c>
-      <c r="V32" s="4">
+      <c r="AB32" s="4">
         <v>13874.28</v>
       </c>
-      <c r="W32" s="4">
+      <c r="AC32" s="4">
         <v>13811.56</v>
       </c>
-      <c r="X32" s="4">
+      <c r="AD32" s="4">
         <v>13922.91</v>
       </c>
-      <c r="Y32" s="10">
+      <c r="AE32" s="4">
+        <v>13805.64</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>13966.84</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>13770.88</v>
+      </c>
+      <c r="AH32" s="12">
         <f t="shared" si="2"/>
-        <v>13811.56</v>
+        <v>13770.88</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="3:25">
+    <row r="33" ht="15.75" spans="3:34">
       <c r="C33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3220,56 +4028,83 @@
       <c r="H33" s="4">
         <v>3336.02</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="4">
+        <v>3336.02</v>
+      </c>
+      <c r="J33" s="4">
+        <v>3336.02</v>
+      </c>
+      <c r="K33" s="4">
+        <v>3336.02</v>
+      </c>
+      <c r="L33" s="12">
         <f t="shared" si="0"/>
         <v>3336.02</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="11">
+      <c r="O33" s="13">
         <v>50</v>
       </c>
-      <c r="M33" s="4">
+      <c r="P33" s="4">
         <v>8734.71</v>
       </c>
-      <c r="N33" s="4">
+      <c r="Q33" s="4">
         <v>8776.18</v>
       </c>
-      <c r="O33" s="4">
+      <c r="R33" s="4">
         <v>8800.47</v>
       </c>
-      <c r="P33" s="4">
+      <c r="S33" s="4">
         <v>8626.78</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="T33" s="4">
+        <v>8758.66</v>
+      </c>
+      <c r="U33" s="4">
+        <v>8783.91</v>
+      </c>
+      <c r="V33" s="4">
+        <v>8877.51</v>
+      </c>
+      <c r="W33" s="12">
         <f t="shared" si="1"/>
         <v>8626.78</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="Y33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T33" s="11">
+      <c r="Z33" s="13">
         <v>75</v>
       </c>
-      <c r="U33" s="4">
+      <c r="AA33" s="4">
         <v>14252.38</v>
       </c>
-      <c r="V33" s="4">
+      <c r="AB33" s="4">
         <v>14230.85</v>
       </c>
-      <c r="W33" s="4">
+      <c r="AC33" s="4">
         <v>14284.22</v>
       </c>
-      <c r="X33" s="4">
+      <c r="AD33" s="4">
         <v>14200.67</v>
       </c>
-      <c r="Y33" s="10">
+      <c r="AE33" s="4">
+        <v>14218.53</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>14318.71</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>14330.12</v>
+      </c>
+      <c r="AH33" s="12">
         <f t="shared" si="2"/>
         <v>14200.67</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="3:25">
+    <row r="34" ht="15.75" spans="3:34">
       <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
@@ -3288,56 +4123,83 @@
       <c r="H34" s="4">
         <v>2002.98</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="4">
+        <v>2030.67</v>
+      </c>
+      <c r="J34" s="4">
+        <v>2074.5</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2108.36</v>
+      </c>
+      <c r="L34" s="12">
         <f t="shared" si="0"/>
         <v>2002.98</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="11">
+      <c r="O34" s="13">
         <v>52</v>
       </c>
-      <c r="M34" s="4">
+      <c r="P34" s="4">
         <v>4579.68</v>
       </c>
-      <c r="N34" s="4">
+      <c r="Q34" s="4">
         <v>4605.86</v>
       </c>
-      <c r="O34" s="4">
+      <c r="R34" s="4">
         <v>4556.97</v>
       </c>
-      <c r="P34" s="4">
+      <c r="S34" s="4">
         <v>4607.85</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="T34" s="4">
+        <v>4564.16</v>
+      </c>
+      <c r="U34" s="4">
+        <v>4574.3</v>
+      </c>
+      <c r="V34" s="4">
+        <v>4659.18</v>
+      </c>
+      <c r="W34" s="12">
         <f t="shared" si="1"/>
         <v>4556.97</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="Y34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T34" s="11">
+      <c r="Z34" s="13">
         <v>78</v>
       </c>
-      <c r="U34" s="4">
+      <c r="AA34" s="4">
         <v>7686.45</v>
       </c>
-      <c r="V34" s="4">
+      <c r="AB34" s="4">
         <v>7981.03</v>
       </c>
-      <c r="W34" s="4">
+      <c r="AC34" s="4">
         <v>7825.19</v>
       </c>
-      <c r="X34" s="4">
+      <c r="AD34" s="4">
         <v>7934.13</v>
       </c>
-      <c r="Y34" s="10">
+      <c r="AE34" s="4">
+        <v>8196.01</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>7899.02</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>8161.32</v>
+      </c>
+      <c r="AH34" s="12">
         <f t="shared" si="2"/>
         <v>7686.45</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="3:25">
+    <row r="35" ht="15.75" spans="3:34">
       <c r="C35" s="3" t="s">
         <v>35</v>
       </c>
@@ -3356,56 +4218,83 @@
       <c r="H35" s="4">
         <v>7394.37</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="4">
+        <v>7323.06</v>
+      </c>
+      <c r="J35" s="4">
+        <v>7776.2</v>
+      </c>
+      <c r="K35" s="4">
+        <v>8085.32</v>
+      </c>
+      <c r="L35" s="12">
         <f t="shared" si="0"/>
         <v>7082.96</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L35" s="11">
+      <c r="O35" s="13">
         <v>159</v>
       </c>
-      <c r="M35" s="4">
+      <c r="P35" s="4">
         <v>16921.53</v>
       </c>
-      <c r="N35" s="4">
+      <c r="Q35" s="4">
         <v>15846.82</v>
       </c>
-      <c r="O35" s="4">
+      <c r="R35" s="4">
         <v>16405.62</v>
       </c>
-      <c r="P35" s="4">
+      <c r="S35" s="4">
         <v>16612.15</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="T35" s="4">
+        <v>16465.44</v>
+      </c>
+      <c r="U35" s="4">
+        <v>16575.85</v>
+      </c>
+      <c r="V35" s="4">
+        <v>16776.78</v>
+      </c>
+      <c r="W35" s="12">
         <f t="shared" si="1"/>
         <v>15846.82</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="Y35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T35" s="11">
+      <c r="Z35" s="13">
         <v>238</v>
       </c>
-      <c r="U35" s="4">
+      <c r="AA35" s="4">
         <v>25744.73</v>
       </c>
-      <c r="V35" s="4">
+      <c r="AB35" s="4">
         <v>26122.96</v>
       </c>
-      <c r="W35" s="4">
+      <c r="AC35" s="4">
         <v>26203.02</v>
       </c>
-      <c r="X35" s="4">
+      <c r="AD35" s="4">
         <v>26631.47</v>
       </c>
-      <c r="Y35" s="10">
+      <c r="AE35" s="4">
+        <v>26311.51</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>27376.75</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>26572.11</v>
+      </c>
+      <c r="AH35" s="12">
         <f t="shared" si="2"/>
         <v>25744.73</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="3:25">
+    <row r="36" ht="15.75" spans="3:34">
       <c r="C36" s="3" t="s">
         <v>36</v>
       </c>
@@ -3424,56 +4313,83 @@
       <c r="H36" s="4">
         <v>18022.08</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="4">
+        <v>18028.01</v>
+      </c>
+      <c r="J36" s="4">
+        <v>18280.76</v>
+      </c>
+      <c r="K36" s="4">
+        <v>18270.88</v>
+      </c>
+      <c r="L36" s="12">
         <f t="shared" si="0"/>
         <v>17728.17</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L36" s="11">
+      <c r="O36" s="13">
         <v>38</v>
       </c>
-      <c r="M36" s="4">
+      <c r="P36" s="4">
         <v>36853.89</v>
       </c>
-      <c r="N36" s="4">
+      <c r="Q36" s="4">
         <v>36613.98</v>
       </c>
-      <c r="O36" s="4">
+      <c r="R36" s="4">
         <v>36653.16</v>
       </c>
-      <c r="P36" s="4">
+      <c r="S36" s="4">
         <v>36609.19</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="T36" s="4">
+        <v>36609.5</v>
+      </c>
+      <c r="U36" s="4">
+        <v>36653.16</v>
+      </c>
+      <c r="V36" s="4">
+        <v>36822.06</v>
+      </c>
+      <c r="W36" s="12">
         <f t="shared" si="1"/>
         <v>36609.19</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="Y36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T36" s="11">
+      <c r="Z36" s="13">
         <v>57</v>
       </c>
-      <c r="U36" s="4">
+      <c r="AA36" s="4">
         <v>59499.55</v>
       </c>
-      <c r="V36" s="4">
+      <c r="AB36" s="4">
         <v>59625.31</v>
       </c>
-      <c r="W36" s="4">
+      <c r="AC36" s="4">
         <v>59489.66</v>
       </c>
-      <c r="X36" s="4">
+      <c r="AD36" s="4">
         <v>59528.84</v>
       </c>
-      <c r="Y36" s="10">
+      <c r="AE36" s="4">
+        <v>59528.84</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>59990.69</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>60623</v>
+      </c>
+      <c r="AH36" s="12">
         <f t="shared" si="2"/>
         <v>59489.66</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="3:25">
+    <row r="37" ht="15.75" spans="3:34">
       <c r="C37" s="3" t="s">
         <v>37</v>
       </c>
@@ -3492,56 +4408,83 @@
       <c r="H37" s="4">
         <v>6733.38</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="4">
+        <v>6899.06</v>
+      </c>
+      <c r="J37" s="4">
+        <v>6850.53</v>
+      </c>
+      <c r="K37" s="4">
+        <v>7178.54</v>
+      </c>
+      <c r="L37" s="12">
         <f t="shared" si="0"/>
         <v>6733.38</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L37" s="11">
+      <c r="O37" s="13">
         <v>52</v>
-      </c>
-      <c r="M37" s="4">
-        <v>14473.74</v>
-      </c>
-      <c r="N37" s="4">
-        <v>14473.74</v>
-      </c>
-      <c r="O37" s="4">
-        <v>14473.74</v>
       </c>
       <c r="P37" s="4">
         <v>14473.74</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="4">
+        <v>14473.74</v>
+      </c>
+      <c r="R37" s="4">
+        <v>14473.74</v>
+      </c>
+      <c r="S37" s="4">
+        <v>14473.74</v>
+      </c>
+      <c r="T37" s="4">
+        <v>14653.22</v>
+      </c>
+      <c r="U37" s="4">
+        <v>14473.74</v>
+      </c>
+      <c r="V37" s="4">
+        <v>21156.81</v>
+      </c>
+      <c r="W37" s="12">
         <f t="shared" si="1"/>
         <v>14473.74</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="Y37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T37" s="11">
+      <c r="Z37" s="13">
         <v>80</v>
       </c>
-      <c r="U37" s="4">
+      <c r="AA37" s="4">
         <v>29392.02</v>
       </c>
-      <c r="V37" s="4">
+      <c r="AB37" s="4">
         <v>29581.83</v>
       </c>
-      <c r="W37" s="4">
+      <c r="AC37" s="4">
         <v>29581.61</v>
       </c>
-      <c r="X37" s="4">
+      <c r="AD37" s="4">
         <v>29667.15</v>
       </c>
-      <c r="Y37" s="10">
+      <c r="AE37" s="4">
+        <v>29605.96</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>29653.19</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>29658.8</v>
+      </c>
+      <c r="AH37" s="12">
         <f t="shared" si="2"/>
         <v>29392.02</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="3:25">
+    <row r="38" ht="15.75" spans="3:34">
       <c r="C38" s="3" t="s">
         <v>38</v>
       </c>
@@ -3560,56 +4503,83 @@
       <c r="H38" s="4">
         <v>9329.87</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="4">
+        <v>9329.87</v>
+      </c>
+      <c r="J38" s="4">
+        <v>9329.87</v>
+      </c>
+      <c r="K38" s="4">
+        <v>9378.8</v>
+      </c>
+      <c r="L38" s="12">
         <f t="shared" si="0"/>
         <v>9284.41</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L38" s="11">
+      <c r="O38" s="13">
         <v>62</v>
       </c>
-      <c r="M38" s="4">
+      <c r="P38" s="4">
         <v>20000.01</v>
       </c>
-      <c r="N38" s="4">
+      <c r="Q38" s="4">
         <v>20089.07</v>
       </c>
-      <c r="O38" s="4">
+      <c r="R38" s="4">
         <v>20202.92</v>
       </c>
-      <c r="P38" s="4">
+      <c r="S38" s="4">
         <v>20202.92</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="T38" s="4">
+        <v>20519.77</v>
+      </c>
+      <c r="U38" s="4">
+        <v>20089.07</v>
+      </c>
+      <c r="V38" s="4">
+        <v>20089.07</v>
+      </c>
+      <c r="W38" s="12">
         <f t="shared" si="1"/>
         <v>20000.01</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="Y38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T38" s="11">
+      <c r="Z38" s="13">
         <v>93</v>
       </c>
-      <c r="U38" s="4">
+      <c r="AA38" s="4">
         <v>35356.08</v>
       </c>
-      <c r="V38" s="4">
+      <c r="AB38" s="4">
         <v>35368.11</v>
       </c>
-      <c r="W38" s="4">
+      <c r="AC38" s="4">
         <v>35405.64</v>
       </c>
-      <c r="X38" s="4">
+      <c r="AD38" s="4">
         <v>37039.22</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="AE38" s="4">
+        <v>36819.26</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>38433.04</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>38060.04</v>
+      </c>
+      <c r="AH38" s="12">
         <f t="shared" si="2"/>
         <v>35356.08</v>
       </c>
     </row>
-    <row r="39" ht="15.75" spans="3:25">
+    <row r="39" ht="15.75" spans="3:34">
       <c r="C39" s="3" t="s">
         <v>39</v>
       </c>
@@ -3628,56 +4598,83 @@
       <c r="H39" s="4">
         <v>19724.97</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="4">
+        <v>19709.49</v>
+      </c>
+      <c r="J39" s="4">
+        <v>19922.48</v>
+      </c>
+      <c r="K39" s="4">
+        <v>20056.35</v>
+      </c>
+      <c r="L39" s="12">
         <f t="shared" si="0"/>
-        <v>19724.97</v>
-      </c>
-      <c r="K39" s="3" t="s">
+        <v>19709.49</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L39" s="11">
+      <c r="O39" s="13">
         <v>68</v>
       </c>
-      <c r="M39" s="4">
+      <c r="P39" s="4">
         <v>44216.93</v>
       </c>
-      <c r="N39" s="4">
+      <c r="Q39" s="4">
         <v>44200.34</v>
       </c>
-      <c r="O39" s="4">
+      <c r="R39" s="4">
         <v>43646.23</v>
       </c>
-      <c r="P39" s="4">
+      <c r="S39" s="4">
         <v>43733.73</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="T39" s="4">
+        <v>43519.44</v>
+      </c>
+      <c r="U39" s="4">
+        <v>44269.19</v>
+      </c>
+      <c r="V39" s="4">
+        <v>44010.5</v>
+      </c>
+      <c r="W39" s="12">
         <f t="shared" si="1"/>
-        <v>43646.23</v>
-      </c>
-      <c r="S39" s="3" t="s">
+        <v>43519.44</v>
+      </c>
+      <c r="Y39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T39" s="11">
+      <c r="Z39" s="13">
         <v>102</v>
       </c>
-      <c r="U39" s="4">
+      <c r="AA39" s="4">
         <v>65661.1</v>
       </c>
-      <c r="V39" s="4">
+      <c r="AB39" s="4">
         <v>65888.7</v>
       </c>
-      <c r="W39" s="4">
+      <c r="AC39" s="4">
         <v>65711.95</v>
       </c>
-      <c r="X39" s="4">
+      <c r="AD39" s="4">
         <v>65511.51</v>
       </c>
-      <c r="Y39" s="10">
+      <c r="AE39" s="4">
+        <v>65698.17</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>65602.78</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>65956.21</v>
+      </c>
+      <c r="AH39" s="12">
         <f t="shared" si="2"/>
         <v>65511.51</v>
       </c>
     </row>
-    <row r="40" ht="15.75" spans="3:25">
+    <row r="40" ht="15.75" spans="3:34">
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
@@ -3696,56 +4693,83 @@
       <c r="H40" s="4">
         <v>10742.86</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="4">
+        <v>11434.12</v>
+      </c>
+      <c r="J40" s="4">
+        <v>11434.12</v>
+      </c>
+      <c r="K40" s="4">
+        <v>12573.61</v>
+      </c>
+      <c r="L40" s="12">
         <f t="shared" si="0"/>
         <v>10742.86</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L40" s="11">
+      <c r="O40" s="13">
         <v>72</v>
       </c>
-      <c r="M40" s="4">
+      <c r="P40" s="4">
         <v>25163.37</v>
       </c>
-      <c r="N40" s="4">
+      <c r="Q40" s="4">
         <v>24812.65</v>
       </c>
-      <c r="O40" s="4">
+      <c r="R40" s="4">
         <v>24882.58</v>
       </c>
-      <c r="P40" s="4">
+      <c r="S40" s="4">
         <v>25095.31</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="T40" s="4">
+        <v>24949.41</v>
+      </c>
+      <c r="U40" s="4">
+        <v>26378.13</v>
+      </c>
+      <c r="V40" s="4">
+        <v>27133.64</v>
+      </c>
+      <c r="W40" s="12">
         <f t="shared" si="1"/>
         <v>24812.65</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="Y40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T40" s="11">
+      <c r="Z40" s="13">
         <v>108</v>
       </c>
-      <c r="U40" s="4">
+      <c r="AA40" s="4">
         <v>38205</v>
       </c>
-      <c r="V40" s="4">
+      <c r="AB40" s="4">
         <v>38184.17</v>
       </c>
-      <c r="W40" s="4">
+      <c r="AC40" s="4">
         <v>38910.09</v>
       </c>
-      <c r="X40" s="4">
+      <c r="AD40" s="4">
         <v>39119.06</v>
       </c>
-      <c r="Y40" s="10">
+      <c r="AE40" s="4">
+        <v>38365.59</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>38086.29</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>38635.63</v>
+      </c>
+      <c r="AH40" s="12">
         <f t="shared" si="2"/>
-        <v>38184.17</v>
+        <v>38086.29</v>
       </c>
     </row>
-    <row r="41" ht="15.75" spans="3:25">
+    <row r="41" ht="15.75" spans="3:34">
       <c r="C41" s="3" t="s">
         <v>41</v>
       </c>
@@ -3764,56 +4788,83 @@
       <c r="H41" s="4">
         <v>14780.62</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="4">
+        <v>18071.43</v>
+      </c>
+      <c r="J41" s="4">
+        <v>16772.09</v>
+      </c>
+      <c r="K41" s="4">
+        <v>16253.13</v>
+      </c>
+      <c r="L41" s="12">
         <f t="shared" si="0"/>
         <v>14780.62</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="11">
+      <c r="O41" s="13">
         <v>76</v>
       </c>
-      <c r="M41" s="4">
+      <c r="P41" s="4">
         <v>30890.56</v>
       </c>
-      <c r="N41" s="4">
+      <c r="Q41" s="4">
         <v>30790.62</v>
       </c>
-      <c r="O41" s="4">
+      <c r="R41" s="4">
         <v>30358.94</v>
       </c>
-      <c r="P41" s="4">
+      <c r="S41" s="4">
         <v>30506.9</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="T41" s="4">
+        <v>30121.28</v>
+      </c>
+      <c r="U41" s="4">
+        <v>29881.19</v>
+      </c>
+      <c r="V41" s="4">
+        <v>29713.63</v>
+      </c>
+      <c r="W41" s="12">
         <f t="shared" si="1"/>
-        <v>30358.94</v>
-      </c>
-      <c r="S41" s="3" t="s">
+        <v>29713.63</v>
+      </c>
+      <c r="Y41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T41" s="11">
+      <c r="Z41" s="13">
         <v>114</v>
       </c>
-      <c r="U41" s="4">
+      <c r="AA41" s="4">
         <v>45779.37</v>
       </c>
-      <c r="V41" s="4">
+      <c r="AB41" s="4">
         <v>46658.43</v>
       </c>
-      <c r="W41" s="4">
+      <c r="AC41" s="4">
         <v>47682.66</v>
       </c>
-      <c r="X41" s="4">
+      <c r="AD41" s="4">
         <v>47675.05</v>
       </c>
-      <c r="Y41" s="10">
+      <c r="AE41" s="4">
+        <v>46896.61</v>
+      </c>
+      <c r="AF41" s="4">
+        <v>47187.01</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>47540.07</v>
+      </c>
+      <c r="AH41" s="12">
         <f t="shared" si="2"/>
         <v>45779.37</v>
       </c>
     </row>
-    <row r="42" ht="15.75" spans="3:25">
+    <row r="42" ht="15.75" spans="3:34">
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
@@ -3832,56 +4883,83 @@
       <c r="H42" s="4">
         <v>15722.1</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="4">
+        <v>15746.73</v>
+      </c>
+      <c r="J42" s="4">
+        <v>15609.11</v>
+      </c>
+      <c r="K42" s="4">
+        <v>15808.83</v>
+      </c>
+      <c r="L42" s="12">
         <f t="shared" si="0"/>
-        <v>15700.97</v>
-      </c>
-      <c r="K42" s="3" t="s">
+        <v>15609.11</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L42" s="11">
+      <c r="O42" s="13">
         <v>113</v>
       </c>
-      <c r="M42" s="4">
+      <c r="P42" s="4">
         <v>26220.45</v>
       </c>
-      <c r="N42" s="4">
+      <c r="Q42" s="4">
         <v>26107.17</v>
       </c>
-      <c r="O42" s="4">
+      <c r="R42" s="4">
         <v>26144.6</v>
       </c>
-      <c r="P42" s="4">
+      <c r="S42" s="4">
         <v>26143.94</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="T42" s="4">
+        <v>26220.45</v>
+      </c>
+      <c r="U42" s="4">
+        <v>26346.18</v>
+      </c>
+      <c r="V42" s="4">
+        <v>28947.66</v>
+      </c>
+      <c r="W42" s="12">
         <f t="shared" si="1"/>
         <v>26107.17</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T42" s="11">
+      <c r="Z42" s="13">
         <v>169</v>
       </c>
-      <c r="U42" s="4">
+      <c r="AA42" s="4">
         <v>46010.62</v>
       </c>
-      <c r="V42" s="4">
+      <c r="AB42" s="4">
         <v>45571.29</v>
       </c>
-      <c r="W42" s="4">
+      <c r="AC42" s="4">
         <v>44062.95</v>
       </c>
-      <c r="X42" s="4">
+      <c r="AD42" s="4">
         <v>44562.25</v>
       </c>
-      <c r="Y42" s="10">
+      <c r="AE42" s="4">
+        <v>44221.07</v>
+      </c>
+      <c r="AF42" s="4">
+        <v>43968.74</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>43895.58</v>
+      </c>
+      <c r="AH42" s="12">
         <f t="shared" si="2"/>
-        <v>44062.95</v>
+        <v>43895.58</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="3:25">
+    <row r="43" ht="15.75" spans="3:34">
       <c r="C43" s="3" t="s">
         <v>43</v>
       </c>
@@ -3900,56 +4978,83 @@
       <c r="H43" s="4">
         <v>243.49</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="4">
+        <v>245.44</v>
+      </c>
+      <c r="J43" s="4">
+        <v>247.36</v>
+      </c>
+      <c r="K43" s="4">
+        <v>247.34</v>
+      </c>
+      <c r="L43" s="12">
         <f t="shared" si="0"/>
         <v>243.49</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L43" s="11">
+      <c r="O43" s="13">
         <v>49</v>
       </c>
-      <c r="M43" s="4">
+      <c r="P43" s="4">
         <v>535.6</v>
       </c>
-      <c r="N43" s="4">
+      <c r="Q43" s="4">
         <v>535.1</v>
       </c>
-      <c r="O43" s="4">
+      <c r="R43" s="4">
         <v>535.82</v>
       </c>
-      <c r="P43" s="4">
+      <c r="S43" s="4">
         <v>538.68</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="T43" s="4">
+        <v>549.7</v>
+      </c>
+      <c r="U43" s="4">
+        <v>533.47</v>
+      </c>
+      <c r="V43" s="4">
+        <v>529.95</v>
+      </c>
+      <c r="W43" s="12">
         <f t="shared" si="1"/>
-        <v>535.1</v>
-      </c>
-      <c r="S43" s="3" t="s">
+        <v>529.95</v>
+      </c>
+      <c r="Y43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T43" s="11">
+      <c r="Z43" s="13">
         <v>74</v>
       </c>
-      <c r="U43" s="4">
+      <c r="AA43" s="4">
         <v>844.53</v>
       </c>
-      <c r="V43" s="4">
+      <c r="AB43" s="4">
         <v>838.24</v>
       </c>
-      <c r="W43" s="4">
+      <c r="AC43" s="4">
         <v>847.94</v>
       </c>
-      <c r="X43" s="4">
+      <c r="AD43" s="4">
         <v>838.34</v>
       </c>
-      <c r="Y43" s="10">
+      <c r="AE43" s="4">
+        <v>855.92</v>
+      </c>
+      <c r="AF43" s="4">
+        <v>846.37</v>
+      </c>
+      <c r="AG43" s="4">
+        <v>840.17</v>
+      </c>
+      <c r="AH43" s="12">
         <f t="shared" si="2"/>
         <v>838.24</v>
       </c>
     </row>
-    <row r="44" ht="15.75" spans="3:25">
+    <row r="44" ht="15.75" spans="3:34">
       <c r="C44" s="3" t="s">
         <v>44</v>
       </c>
@@ -3968,56 +5073,83 @@
       <c r="H44" s="4">
         <v>538.92</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="4">
+        <v>535.35</v>
+      </c>
+      <c r="J44" s="4">
+        <v>528.44</v>
+      </c>
+      <c r="K44" s="4">
+        <v>534.6</v>
+      </c>
+      <c r="L44" s="12">
         <f t="shared" si="0"/>
         <v>520.24</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L44" s="11">
+      <c r="O44" s="13">
         <v>97</v>
       </c>
-      <c r="M44" s="4">
+      <c r="P44" s="4">
         <v>1110.63</v>
       </c>
-      <c r="N44" s="4">
+      <c r="Q44" s="4">
         <v>1113.06</v>
       </c>
-      <c r="O44" s="4">
+      <c r="R44" s="4">
         <v>1105.46</v>
       </c>
-      <c r="P44" s="4">
+      <c r="S44" s="4">
         <v>1119.31</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="T44" s="4">
+        <v>1113.09</v>
+      </c>
+      <c r="U44" s="4">
+        <v>1104.3</v>
+      </c>
+      <c r="V44" s="4">
+        <v>1119.38</v>
+      </c>
+      <c r="W44" s="12">
         <f t="shared" si="1"/>
-        <v>1105.46</v>
-      </c>
-      <c r="S44" s="3" t="s">
+        <v>1104.3</v>
+      </c>
+      <c r="Y44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T44" s="11">
+      <c r="Z44" s="13">
         <v>146</v>
       </c>
-      <c r="U44" s="4">
+      <c r="AA44" s="4">
         <v>1702.9</v>
       </c>
-      <c r="V44" s="4">
+      <c r="AB44" s="4">
         <v>1720.44</v>
       </c>
-      <c r="W44" s="4">
+      <c r="AC44" s="4">
         <v>1692.19</v>
       </c>
-      <c r="X44" s="4">
+      <c r="AD44" s="4">
         <v>1709.57</v>
       </c>
-      <c r="Y44" s="10">
+      <c r="AE44" s="4">
+        <v>1706.38</v>
+      </c>
+      <c r="AF44" s="4">
+        <v>1716.66</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>1717.24</v>
+      </c>
+      <c r="AH44" s="12">
         <f t="shared" si="2"/>
         <v>1692.19</v>
       </c>
     </row>
-    <row r="45" ht="15.75" spans="3:25">
+    <row r="45" ht="15.75" spans="3:34">
       <c r="C45" s="3" t="s">
         <v>45</v>
       </c>
@@ -4036,56 +5168,83 @@
       <c r="H45" s="4">
         <v>108.3</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="4">
+        <v>108.3</v>
+      </c>
+      <c r="J45" s="4">
+        <v>108.3</v>
+      </c>
+      <c r="K45" s="4">
+        <v>108.3</v>
+      </c>
+      <c r="L45" s="12">
         <f t="shared" si="0"/>
         <v>108.3</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="11">
+      <c r="O45" s="13">
         <v>35</v>
-      </c>
-      <c r="M45" s="4">
-        <v>245.6</v>
-      </c>
-      <c r="N45" s="4">
-        <v>246.79</v>
-      </c>
-      <c r="O45" s="4">
-        <v>246.79</v>
       </c>
       <c r="P45" s="4">
         <v>245.6</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="4">
+        <v>246.79</v>
+      </c>
+      <c r="R45" s="4">
+        <v>246.79</v>
+      </c>
+      <c r="S45" s="4">
+        <v>245.6</v>
+      </c>
+      <c r="T45" s="4">
+        <v>248.04</v>
+      </c>
+      <c r="U45" s="4">
+        <v>246.79</v>
+      </c>
+      <c r="V45" s="4">
+        <v>245.6</v>
+      </c>
+      <c r="W45" s="12">
         <f t="shared" si="1"/>
         <v>245.6</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="Y45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T45" s="11">
+      <c r="Z45" s="13">
         <v>52</v>
       </c>
-      <c r="U45" s="4">
+      <c r="AA45" s="4">
         <v>413.9</v>
       </c>
-      <c r="V45" s="4">
+      <c r="AB45" s="4">
         <v>421.54</v>
       </c>
-      <c r="W45" s="4">
+      <c r="AC45" s="4">
         <v>413.9</v>
       </c>
-      <c r="X45" s="4">
+      <c r="AD45" s="4">
         <v>422.42</v>
       </c>
-      <c r="Y45" s="10">
+      <c r="AE45" s="4">
+        <v>415.75</v>
+      </c>
+      <c r="AF45" s="4">
+        <v>415.54</v>
+      </c>
+      <c r="AG45" s="4">
+        <v>415.54</v>
+      </c>
+      <c r="AH45" s="12">
         <f t="shared" si="2"/>
         <v>413.9</v>
       </c>
     </row>
-    <row r="46" ht="15.75" spans="3:25">
+    <row r="46" ht="15.75" spans="3:34">
       <c r="C46" s="3" t="s">
         <v>46</v>
       </c>
@@ -4104,56 +5263,83 @@
       <c r="H46" s="4">
         <v>146</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="4">
+        <v>146</v>
+      </c>
+      <c r="J46" s="4">
+        <v>146</v>
+      </c>
+      <c r="K46" s="4">
+        <v>146</v>
+      </c>
+      <c r="L46" s="12">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L46" s="11">
+      <c r="O46" s="13">
         <v>21</v>
-      </c>
-      <c r="M46" s="4">
-        <v>410</v>
-      </c>
-      <c r="N46" s="4">
-        <v>410</v>
-      </c>
-      <c r="O46" s="4">
-        <v>410</v>
       </c>
       <c r="P46" s="4">
         <v>410</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="4">
+        <v>410</v>
+      </c>
+      <c r="R46" s="4">
+        <v>410</v>
+      </c>
+      <c r="S46" s="4">
+        <v>410</v>
+      </c>
+      <c r="T46" s="4">
+        <v>410</v>
+      </c>
+      <c r="U46" s="4">
+        <v>410</v>
+      </c>
+      <c r="V46" s="4">
+        <v>410</v>
+      </c>
+      <c r="W46" s="12">
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="Y46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T46" s="11">
+      <c r="Z46" s="13">
         <v>31</v>
       </c>
-      <c r="U46" s="4">
+      <c r="AA46" s="4">
         <v>698</v>
       </c>
-      <c r="V46" s="4">
+      <c r="AB46" s="4">
         <v>698</v>
       </c>
-      <c r="W46" s="4">
+      <c r="AC46" s="4">
         <v>698</v>
       </c>
-      <c r="X46" s="4">
+      <c r="AD46" s="4">
         <v>698</v>
       </c>
-      <c r="Y46" s="10">
+      <c r="AE46" s="4">
+        <v>698</v>
+      </c>
+      <c r="AF46" s="4">
+        <v>698</v>
+      </c>
+      <c r="AG46" s="4">
+        <v>698</v>
+      </c>
+      <c r="AH46" s="12">
         <f t="shared" si="2"/>
         <v>698</v>
       </c>
     </row>
-    <row r="47" ht="15.75" spans="3:25">
+    <row r="47" ht="15.75" spans="3:34">
       <c r="C47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4172,56 +5358,83 @@
       <c r="H47" s="4">
         <v>638.03</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="4">
+        <v>638.03</v>
+      </c>
+      <c r="J47" s="4">
+        <v>638.03</v>
+      </c>
+      <c r="K47" s="4">
+        <v>638.03</v>
+      </c>
+      <c r="L47" s="12">
         <f t="shared" si="0"/>
         <v>638.03</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L47" s="11">
+      <c r="O47" s="13">
         <v>8</v>
-      </c>
-      <c r="M47" s="4">
-        <v>1397.42</v>
-      </c>
-      <c r="N47" s="4">
-        <v>1397.42</v>
-      </c>
-      <c r="O47" s="4">
-        <v>1397.42</v>
       </c>
       <c r="P47" s="4">
         <v>1397.42</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="Q47" s="4">
+        <v>1397.42</v>
+      </c>
+      <c r="R47" s="4">
+        <v>1397.42</v>
+      </c>
+      <c r="S47" s="4">
+        <v>1397.42</v>
+      </c>
+      <c r="T47" s="4">
+        <v>1397.42</v>
+      </c>
+      <c r="U47" s="4">
+        <v>1397.42</v>
+      </c>
+      <c r="V47" s="4">
+        <v>1397.42</v>
+      </c>
+      <c r="W47" s="12">
         <f t="shared" si="1"/>
         <v>1397.42</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T47" s="11">
+      <c r="Z47" s="13">
         <v>12</v>
       </c>
-      <c r="U47" s="4">
+      <c r="AA47" s="4">
         <v>2731</v>
       </c>
-      <c r="V47" s="4">
+      <c r="AB47" s="4">
         <v>2731</v>
       </c>
-      <c r="W47" s="4">
+      <c r="AC47" s="4">
         <v>2731</v>
       </c>
-      <c r="X47" s="4">
+      <c r="AD47" s="4">
         <v>2731</v>
       </c>
-      <c r="Y47" s="10">
+      <c r="AE47" s="4">
+        <v>2731</v>
+      </c>
+      <c r="AF47" s="4">
+        <v>2731</v>
+      </c>
+      <c r="AG47" s="4">
+        <v>2731</v>
+      </c>
+      <c r="AH47" s="12">
         <f t="shared" si="2"/>
         <v>2731</v>
       </c>
     </row>
-    <row r="48" ht="15.75" spans="3:25">
+    <row r="48" ht="15.75" spans="3:34">
       <c r="C48" s="3" t="s">
         <v>48</v>
       </c>
@@ -4240,56 +5453,83 @@
       <c r="H48" s="4">
         <v>456.58</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="4">
+        <v>456.58</v>
+      </c>
+      <c r="J48" s="4">
+        <v>456.58</v>
+      </c>
+      <c r="K48" s="4">
+        <v>456.58</v>
+      </c>
+      <c r="L48" s="12">
         <f t="shared" si="0"/>
         <v>456.58</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L48" s="11">
+      <c r="O48" s="13">
         <v>11</v>
-      </c>
-      <c r="M48" s="4">
-        <v>1591.34</v>
-      </c>
-      <c r="N48" s="4">
-        <v>1591.34</v>
-      </c>
-      <c r="O48" s="4">
-        <v>1591.34</v>
       </c>
       <c r="P48" s="4">
         <v>1591.34</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="Q48" s="4">
+        <v>1591.34</v>
+      </c>
+      <c r="R48" s="4">
+        <v>1591.34</v>
+      </c>
+      <c r="S48" s="4">
+        <v>1591.34</v>
+      </c>
+      <c r="T48" s="4">
+        <v>1591.34</v>
+      </c>
+      <c r="U48" s="4">
+        <v>1591.34</v>
+      </c>
+      <c r="V48" s="4">
+        <v>1591.34</v>
+      </c>
+      <c r="W48" s="12">
         <f t="shared" si="1"/>
         <v>1591.34</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T48" s="11">
+      <c r="Z48" s="13">
         <v>16</v>
       </c>
-      <c r="U48" s="4">
+      <c r="AA48" s="4">
         <v>2540.07</v>
       </c>
-      <c r="V48" s="4">
+      <c r="AB48" s="4">
         <v>2540.07</v>
       </c>
-      <c r="W48" s="4">
+      <c r="AC48" s="4">
         <v>2540.07</v>
       </c>
-      <c r="X48" s="4">
+      <c r="AD48" s="4">
         <v>2540.07</v>
       </c>
-      <c r="Y48" s="10">
+      <c r="AE48" s="4">
+        <v>2540.07</v>
+      </c>
+      <c r="AF48" s="4">
+        <v>2540.07</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>2540.07</v>
+      </c>
+      <c r="AH48" s="12">
         <f t="shared" si="2"/>
         <v>2540.07</v>
       </c>
     </row>
-    <row r="49" spans="3:24">
+    <row r="49" spans="3:33">
       <c r="C49" s="5" t="s">
         <v>49</v>
       </c>
@@ -4301,75 +5541,123 @@
         <v>32</v>
       </c>
       <c r="G49" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H49" s="6">
-        <v>26</v>
-      </c>
-      <c r="K49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="6">
+        <v>21</v>
+      </c>
+      <c r="J49" s="6">
+        <v>21</v>
+      </c>
+      <c r="K49" s="6">
+        <v>16</v>
+      </c>
+      <c r="N49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="6">
-        <v>22</v>
-      </c>
-      <c r="N49" s="6">
+      <c r="O49" s="5"/>
+      <c r="P49" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>24</v>
+      </c>
+      <c r="R49" s="6">
+        <v>20</v>
+      </c>
+      <c r="S49" s="6">
+        <v>17</v>
+      </c>
+      <c r="T49" s="6">
+        <v>17</v>
+      </c>
+      <c r="U49" s="6">
+        <v>19</v>
+      </c>
+      <c r="V49" s="6">
+        <v>17</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="6">
         <v>25</v>
       </c>
-      <c r="O49" s="6">
-        <v>25</v>
-      </c>
-      <c r="P49" s="6">
-        <v>20</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T49" s="5"/>
-      <c r="U49" s="6">
-        <v>26</v>
-      </c>
-      <c r="V49" s="6">
-        <v>19</v>
-      </c>
-      <c r="W49" s="6">
-        <v>19</v>
-      </c>
-      <c r="X49" s="6">
+      <c r="AB49" s="6">
+        <v>17</v>
+      </c>
+      <c r="AC49" s="6">
         <v>16</v>
       </c>
+      <c r="AD49" s="6">
+        <v>15</v>
+      </c>
+      <c r="AE49" s="6">
+        <v>13</v>
+      </c>
+      <c r="AF49" s="6">
+        <v>15</v>
+      </c>
+      <c r="AG49" s="6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="50" spans="3:24">
+    <row r="50" spans="3:33">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
       <c r="P50" s="6"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
     </row>
-    <row r="53" ht="15.75" spans="3:8">
-      <c r="C53" s="2" t="s">
+    <row r="52" spans="3:9">
+      <c r="C52" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" ht="15.75" spans="3:11">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
-    <row r="54" ht="15.75" spans="3:6">
+    <row r="54" ht="15.75" spans="3:9">
       <c r="C54" s="2">
         <v>2</v>
       </c>
@@ -4382,708 +5670,1398 @@
       <c r="F54" s="2">
         <v>8</v>
       </c>
+      <c r="G54" s="8">
+        <v>10</v>
+      </c>
+      <c r="H54" s="8">
+        <v>15</v>
+      </c>
+      <c r="I54" s="8">
+        <v>20</v>
+      </c>
     </row>
-    <row r="55" spans="3:6">
+    <row r="55" spans="3:9">
       <c r="C55" s="6">
-        <f>SUM(E49,M49,U49)</f>
-        <v>74</v>
-      </c>
-      <c r="D55" s="8">
-        <f>SUM(F49,N49,V49)</f>
-        <v>76</v>
+        <f>SUM(E49,P49,AA49)</f>
+        <v>72</v>
+      </c>
+      <c r="D55" s="9">
+        <f>SUM(F49,Q49,AB49)</f>
+        <v>73</v>
       </c>
       <c r="E55" s="6">
-        <f>SUM(G49,O49,W49)</f>
-        <v>72</v>
+        <f>SUM(G49,R49,AC49)</f>
+        <v>63</v>
       </c>
       <c r="F55" s="6">
-        <f>SUM(H49,P49,X49)</f>
-        <v>62</v>
+        <f>SUM(H49,S49,AG49)</f>
+        <v>57</v>
+      </c>
+      <c r="G55" s="6">
+        <f>SUM(I49,T49,AE49)</f>
+        <v>51</v>
+      </c>
+      <c r="H55" s="10">
+        <f>SUM(J49,U49,AF49)</f>
+        <v>55</v>
+      </c>
+      <c r="I55" s="6">
+        <f>SUM(K49,V49,AG49)</f>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="C53:F53"/>
+  <mergeCells count="31">
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="AA3:AG3"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
     <mergeCell ref="U49:U50"/>
     <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="AA49:AA50"/>
+    <mergeCell ref="AB49:AB50"/>
+    <mergeCell ref="AC49:AC50"/>
+    <mergeCell ref="AD49:AD50"/>
+    <mergeCell ref="AE49:AE50"/>
+    <mergeCell ref="AF49:AF50"/>
+    <mergeCell ref="AG49:AG50"/>
+    <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="C49:D50"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="S49:T50"/>
+    <mergeCell ref="Y49:Z50"/>
+    <mergeCell ref="N49:O50"/>
+    <mergeCell ref="C52:I53"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:H5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="0" priority="132" operator="equal">
-      <formula>$I$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:P5">
+      <formula>$L$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5">
     <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
-      <formula>$Q$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5:X5">
+      <formula>$W$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD5">
     <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
-      <formula>$Y$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:H6">
+      <formula>$AH$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="cellIs" dxfId="0" priority="131" operator="equal">
-      <formula>$I$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:P6">
+      <formula>$L$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
     <cfRule type="cellIs" dxfId="0" priority="87" operator="equal">
-      <formula>$Q$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U6:X6">
+      <formula>$W$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD6">
     <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
-      <formula>$Y$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:H7">
+      <formula>$AH$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="0" priority="130" operator="equal">
-      <formula>$I$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7:P7">
+      <formula>$L$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
     <cfRule type="cellIs" dxfId="0" priority="86" operator="equal">
-      <formula>$Q$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7:X7">
+      <formula>$W$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD7">
     <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
-      <formula>$Y$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:H8">
+      <formula>$AH$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="0" priority="129" operator="equal">
-      <formula>$I$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8:P8">
+      <formula>$L$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
     <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
-      <formula>$Q$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8:X8">
+      <formula>$W$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
     <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
-      <formula>$Y$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:H9">
+      <formula>$AH$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
     <cfRule type="cellIs" dxfId="0" priority="128" operator="equal">
-      <formula>$I$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9:P9">
+      <formula>$L$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9">
     <cfRule type="cellIs" dxfId="0" priority="84" operator="equal">
-      <formula>$Q$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:X9">
+      <formula>$W$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9">
     <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
-      <formula>$Y$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:H10">
+      <formula>$AH$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" dxfId="0" priority="127" operator="equal">
-      <formula>$I$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:P10">
+      <formula>$L$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
     <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
-      <formula>$Q$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U10:X10">
+      <formula>$W$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD10">
     <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
-      <formula>$Y$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:H11">
+      <formula>$AH$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="0" priority="126" operator="equal">
-      <formula>$I$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:P11">
+      <formula>$L$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
     <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
-      <formula>$Q$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U11:X11">
+      <formula>$W$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD11">
     <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
-      <formula>$Y$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:H12">
+      <formula>$AH$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="0" priority="125" operator="equal">
-      <formula>$I$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:P12">
+      <formula>$L$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
     <cfRule type="cellIs" dxfId="0" priority="81" operator="equal">
-      <formula>$Q$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:X12">
+      <formula>$W$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD12">
     <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
-      <formula>$Y$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:H13">
+      <formula>$AH$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="cellIs" dxfId="0" priority="124" operator="equal">
-      <formula>$I$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:P13">
+      <formula>$L$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
     <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
-      <formula>$Q$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U13:X13">
+      <formula>$W$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD13">
     <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
-      <formula>$Y$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:H14">
+      <formula>$AH$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="0" priority="123" operator="equal">
-      <formula>$I$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:P14">
+      <formula>$L$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14">
     <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
-      <formula>$Q$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U14:X14">
+      <formula>$W$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD14">
     <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
-      <formula>$Y$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:H15">
+      <formula>$AH$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="0" priority="122" operator="equal">
-      <formula>$I$15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15:P15">
+      <formula>$L$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15">
     <cfRule type="cellIs" dxfId="0" priority="78" operator="equal">
-      <formula>$Q$15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U15:X15">
+      <formula>$W$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD15">
     <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
-      <formula>$Y$15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:H16">
+      <formula>$AH$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="cellIs" dxfId="0" priority="121" operator="equal">
-      <formula>$I$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16:P16">
+      <formula>$L$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16">
     <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
-      <formula>$Q$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:X16">
+      <formula>$W$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
     <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
-      <formula>$Y$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:H17">
+      <formula>$AH$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
     <cfRule type="cellIs" dxfId="0" priority="120" operator="equal">
-      <formula>$I$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:P17">
+      <formula>$L$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
     <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
-      <formula>$Q$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:X17">
+      <formula>$W$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD17">
     <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
-      <formula>$Y$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:H18">
+      <formula>$AH$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="cellIs" dxfId="0" priority="119" operator="equal">
-      <formula>$I$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:P18">
+      <formula>$L$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
     <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
-      <formula>$Q$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18:X18">
+      <formula>$W$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD18">
     <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
-      <formula>$Y$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:H19">
+      <formula>$AH$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="0" priority="118" operator="equal">
-      <formula>$I$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:P19">
+      <formula>$L$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19">
     <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
-      <formula>$Q$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U19:X19">
+      <formula>$W$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD19">
     <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
-      <formula>$Y$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:H20">
+      <formula>$AH$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" dxfId="0" priority="117" operator="equal">
-      <formula>$I$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20:P20">
+      <formula>$L$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
     <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
-      <formula>$Q$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U20:X20">
+      <formula>$W$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD20">
     <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
-      <formula>$Y$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:H21">
+      <formula>$AH$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" dxfId="0" priority="116" operator="equal">
-      <formula>$I$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:P21">
+      <formula>$L$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
     <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
-      <formula>$Q$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U21:X21">
+      <formula>$W$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD21">
     <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$Y$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:H22">
+      <formula>$AH$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="cellIs" dxfId="0" priority="115" operator="equal">
-      <formula>$I$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22:P22">
+      <formula>$L$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
     <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
-      <formula>$Q$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U22:X22">
+      <formula>$W$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD22">
     <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
-      <formula>$Y$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:H23">
+      <formula>$AH$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="0" priority="114" operator="equal">
-      <formula>$I$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23:P23">
+      <formula>$L$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
     <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
-      <formula>$Q$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:X23">
+      <formula>$W$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD23">
     <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
-      <formula>$Y$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:H24">
+      <formula>$AH$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="0" priority="113" operator="equal">
-      <formula>$I$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:P24">
+      <formula>$L$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
     <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
-      <formula>$Q$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U24:X24">
+      <formula>$W$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24">
     <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
-      <formula>$Y$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:H25">
+      <formula>$AH$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
     <cfRule type="cellIs" dxfId="0" priority="112" operator="equal">
-      <formula>$I$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25:P25">
+      <formula>$L$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25">
     <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
-      <formula>$Q$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U25:X25">
+      <formula>$W$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD25">
     <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
-      <formula>$Y$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
+      <formula>$AH$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="0" priority="111" operator="equal">
-      <formula>$I$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26:P26">
+      <formula>$L$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
     <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
-      <formula>$Q$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U26:X26">
+      <formula>$W$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD26">
     <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
-      <formula>$Y$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:H27">
+      <formula>$AH$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="0" priority="110" operator="equal">
-      <formula>$I$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:P27">
+      <formula>$L$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
     <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
-      <formula>$Q$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U27:X27">
+      <formula>$W$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD27">
     <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
-      <formula>$Y$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:H28">
+      <formula>$AH$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
-      <formula>$I$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:P28">
+      <formula>$L$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
     <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
-      <formula>$Q$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U28:X28">
+      <formula>$W$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD28">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
-      <formula>$Y$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:H29">
+      <formula>$AH$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="cellIs" dxfId="0" priority="108" operator="equal">
-      <formula>$I$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:P29">
+      <formula>$L$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29">
     <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
-      <formula>$Q$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U29:X29">
+      <formula>$W$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD29">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
-      <formula>$Y$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:H30">
+      <formula>$AH$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="cellIs" dxfId="0" priority="107" operator="equal">
-      <formula>$I$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:P30">
+      <formula>$L$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
     <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
-      <formula>$Q$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U30:X30">
+      <formula>$W$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD30">
     <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
-      <formula>$Y$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:H31">
+      <formula>$AH$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="0" priority="106" operator="equal">
-      <formula>$I$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:P31">
+      <formula>$L$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S31">
     <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
-      <formula>$Q$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U31:X31">
+      <formula>$W$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31">
     <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
-      <formula>$Y$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:H32">
+      <formula>$AH$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
     <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
-      <formula>$I$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32:P32">
+      <formula>$L$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
     <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
-      <formula>$Q$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U32:X32">
+      <formula>$W$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD32">
     <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
-      <formula>$Y$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:H33">
+      <formula>$AH$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
     <cfRule type="cellIs" dxfId="0" priority="104" operator="equal">
-      <formula>$I$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M33:P33">
+      <formula>$L$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S33">
     <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
-      <formula>$Q$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U33:X33">
+      <formula>$W$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD33">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
-      <formula>$Y$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:H34">
+      <formula>$AH$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
     <cfRule type="cellIs" dxfId="0" priority="103" operator="equal">
-      <formula>$I$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:P34">
+      <formula>$L$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34">
     <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
-      <formula>$Q$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:X34">
+      <formula>$W$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
-      <formula>$Y$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:H35">
+      <formula>$AH$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="0" priority="102" operator="equal">
-      <formula>$I$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M35:P35">
+      <formula>$L$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S35">
     <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
-      <formula>$Q$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U35:X35">
+      <formula>$W$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD35">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
-      <formula>$Y$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:H36">
+      <formula>$AH$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="0" priority="101" operator="equal">
-      <formula>$I$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M36:P36">
+      <formula>$L$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36">
     <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
-      <formula>$Q$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U36:X36">
+      <formula>$W$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD36">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>$Y$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:H37">
+      <formula>$AH$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="0" priority="100" operator="equal">
-      <formula>$I$37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37:P37">
+      <formula>$L$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37">
     <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
-      <formula>$Q$37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U37:X37">
+      <formula>$W$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD37">
     <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>$Y$37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:H38">
+      <formula>$AH$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
     <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
-      <formula>$I$38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38:P38">
+      <formula>$L$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S38">
     <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
-      <formula>$Q$38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U38:X38">
+      <formula>$W$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD38">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>$Y$38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:H39">
+      <formula>$AH$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="0" priority="98" operator="equal">
-      <formula>$I$39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M39:P39">
+      <formula>$L$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S39">
     <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
-      <formula>$Q$39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U39:X39">
+      <formula>$W$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD39">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
-      <formula>$Y$39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:H40">
+      <formula>$AH$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="0" priority="97" operator="equal">
-      <formula>$I$40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M40:P40">
+      <formula>$L$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S40">
     <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
-      <formula>$Q$40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U40:X40">
+      <formula>$W$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD40">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>$Y$40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:H41">
+      <formula>$AH$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
     <cfRule type="cellIs" dxfId="0" priority="96" operator="equal">
-      <formula>$I$41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M41:P41">
+      <formula>$L$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S41">
     <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
-      <formula>$Q$41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U41:X41">
+      <formula>$W$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD41">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
-      <formula>$Y$41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:H42">
+      <formula>$AH$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
     <cfRule type="cellIs" dxfId="0" priority="95" operator="equal">
-      <formula>$I$42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M42:P42">
+      <formula>$L$42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S42">
     <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
-      <formula>$Q$42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U42:X42">
+      <formula>$W$42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD42">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>$Y$42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43:H43">
+      <formula>$AH$42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="0" priority="94" operator="equal">
-      <formula>$I$43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M43:P43">
+      <formula>$L$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43">
     <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
-      <formula>$Q$43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U43:X43">
+      <formula>$W$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD43">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>$Y$43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:H44">
+      <formula>$AH$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
-      <formula>$I$44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M44:P44">
+      <formula>$L$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44">
     <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
-      <formula>$Q$44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U44:X44">
+      <formula>$W$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD44">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>$Y$44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:H45">
+      <formula>$AH$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
-      <formula>$I$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M45:P45">
+      <formula>$L$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S45">
     <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
-      <formula>$Q$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U45:X45">
+      <formula>$W$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD45">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>$Y$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:H46">
+      <formula>$AH$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
     <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
-      <formula>$I$46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M46:P46">
+      <formula>$L$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S46">
     <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
-      <formula>$Q$46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U46:X46">
+      <formula>$W$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD46">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>$Y$46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:H47">
+      <formula>$AH$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="0" priority="90" operator="equal">
-      <formula>$I$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M47:P47">
+      <formula>$L$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S47">
     <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
-      <formula>$Q$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U47:X47">
+      <formula>$W$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD47">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>$Y$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:H48">
+      <formula>$AH$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
     <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
       <formula>"456.58"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M48:P48">
+  <conditionalFormatting sqref="S48">
     <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
-      <formula>$Q$48</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U48:X48">
+      <formula>$W$48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD48">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$Y$48</formula>
+      <formula>$AH$48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:G5;I5:K5">
+    <cfRule type="cellIs" dxfId="0" priority="264" operator="equal">
+      <formula>$L$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:R5;T5:V5">
+    <cfRule type="cellIs" dxfId="0" priority="220" operator="equal">
+      <formula>$W$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AC5;AE5:AG5">
+    <cfRule type="cellIs" dxfId="0" priority="176" operator="equal">
+      <formula>$AH$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:G6;I6:K6">
+    <cfRule type="cellIs" dxfId="0" priority="263" operator="equal">
+      <formula>$L$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:R6;T6:V6">
+    <cfRule type="cellIs" dxfId="0" priority="219" operator="equal">
+      <formula>$W$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6:AC6;AE6:AG6">
+    <cfRule type="cellIs" dxfId="0" priority="175" operator="equal">
+      <formula>$AH$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:G7;I7:K7">
+    <cfRule type="cellIs" dxfId="0" priority="262" operator="equal">
+      <formula>$L$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:R7;T7:V7">
+    <cfRule type="cellIs" dxfId="0" priority="218" operator="equal">
+      <formula>$W$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7:AC7;AE7:AG7">
+    <cfRule type="cellIs" dxfId="0" priority="174" operator="equal">
+      <formula>$AH$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:G8;I8:K8">
+    <cfRule type="cellIs" dxfId="0" priority="261" operator="equal">
+      <formula>$L$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:R8;T8:V8">
+    <cfRule type="cellIs" dxfId="0" priority="217" operator="equal">
+      <formula>$W$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA8:AC8;AE8:AG8">
+    <cfRule type="cellIs" dxfId="0" priority="173" operator="equal">
+      <formula>$AH$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:G9;I9:K9">
+    <cfRule type="cellIs" dxfId="0" priority="260" operator="equal">
+      <formula>$L$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:R9;T9:V9">
+    <cfRule type="cellIs" dxfId="0" priority="216" operator="equal">
+      <formula>$W$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9:AC9;AE9:AG9">
+    <cfRule type="cellIs" dxfId="0" priority="172" operator="equal">
+      <formula>$AH$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:G10;I10:K10">
+    <cfRule type="cellIs" dxfId="0" priority="259" operator="equal">
+      <formula>$L$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10:R10;T10:V10">
+    <cfRule type="cellIs" dxfId="0" priority="215" operator="equal">
+      <formula>$W$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10:AC10;AE10:AG10">
+    <cfRule type="cellIs" dxfId="0" priority="171" operator="equal">
+      <formula>$AH$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:G11;I11:K11">
+    <cfRule type="cellIs" dxfId="0" priority="258" operator="equal">
+      <formula>$L$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11:R11;T11:V11">
+    <cfRule type="cellIs" dxfId="0" priority="214" operator="equal">
+      <formula>$W$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AC11;AE11:AG11">
+    <cfRule type="cellIs" dxfId="0" priority="170" operator="equal">
+      <formula>$AH$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:G12;I12:K12">
+    <cfRule type="cellIs" dxfId="0" priority="257" operator="equal">
+      <formula>$L$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:R12;T12:V12">
+    <cfRule type="cellIs" dxfId="0" priority="213" operator="equal">
+      <formula>$W$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12:AC12;AE12:AG12">
+    <cfRule type="cellIs" dxfId="0" priority="169" operator="equal">
+      <formula>$AH$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:G13;I13:K13">
+    <cfRule type="cellIs" dxfId="0" priority="256" operator="equal">
+      <formula>$L$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:R13;T13:V13">
+    <cfRule type="cellIs" dxfId="0" priority="212" operator="equal">
+      <formula>$W$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13:AC13;AE13:AG13">
+    <cfRule type="cellIs" dxfId="0" priority="168" operator="equal">
+      <formula>$AH$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:G14;I14:K14">
+    <cfRule type="cellIs" dxfId="0" priority="255" operator="equal">
+      <formula>$L$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14:R14;T14:V14">
+    <cfRule type="cellIs" dxfId="0" priority="211" operator="equal">
+      <formula>$W$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA14:AC14;AE14:AG14">
+    <cfRule type="cellIs" dxfId="0" priority="167" operator="equal">
+      <formula>$AH$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:G15;I15:K15">
+    <cfRule type="cellIs" dxfId="0" priority="254" operator="equal">
+      <formula>$L$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:R15;T15:V15">
+    <cfRule type="cellIs" dxfId="0" priority="210" operator="equal">
+      <formula>$W$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15:AC15;AE15:AG15">
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="equal">
+      <formula>$AH$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:G16;I16:K16">
+    <cfRule type="cellIs" dxfId="0" priority="253" operator="equal">
+      <formula>$L$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:R16;T16:V16">
+    <cfRule type="cellIs" dxfId="0" priority="209" operator="equal">
+      <formula>$W$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA16:AC16;AE16:AG16">
+    <cfRule type="cellIs" dxfId="0" priority="165" operator="equal">
+      <formula>$AH$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17;I17:K17">
+    <cfRule type="cellIs" dxfId="0" priority="252" operator="equal">
+      <formula>$L$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17:R17;T17:V17">
+    <cfRule type="cellIs" dxfId="0" priority="208" operator="equal">
+      <formula>$W$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA17:AC17;AE17:AG17">
+    <cfRule type="cellIs" dxfId="0" priority="164" operator="equal">
+      <formula>$AH$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:G18;I18:K18">
+    <cfRule type="cellIs" dxfId="0" priority="251" operator="equal">
+      <formula>$L$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:R18;T18:V18">
+    <cfRule type="cellIs" dxfId="0" priority="207" operator="equal">
+      <formula>$W$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA18:AC18;AE18:AG18">
+    <cfRule type="cellIs" dxfId="0" priority="163" operator="equal">
+      <formula>$AH$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:G19;I19:K19">
+    <cfRule type="cellIs" dxfId="0" priority="250" operator="equal">
+      <formula>$L$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19:R19;T19:V19">
+    <cfRule type="cellIs" dxfId="0" priority="206" operator="equal">
+      <formula>$W$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA19:AC19;AE19:AG19">
+    <cfRule type="cellIs" dxfId="0" priority="162" operator="equal">
+      <formula>$AH$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:G20;I20:K20">
+    <cfRule type="cellIs" dxfId="0" priority="249" operator="equal">
+      <formula>$L$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:R20;T20:V20">
+    <cfRule type="cellIs" dxfId="0" priority="205" operator="equal">
+      <formula>$W$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA20:AC20;AE20:AG20">
+    <cfRule type="cellIs" dxfId="0" priority="161" operator="equal">
+      <formula>$AH$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:G21;I21:K21">
+    <cfRule type="cellIs" dxfId="0" priority="248" operator="equal">
+      <formula>$L$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21:R21;T21:V21">
+    <cfRule type="cellIs" dxfId="0" priority="204" operator="equal">
+      <formula>$W$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA21:AC21;AE21:AG21">
+    <cfRule type="cellIs" dxfId="0" priority="160" operator="equal">
+      <formula>$AH$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:G22;I22:K22">
+    <cfRule type="cellIs" dxfId="0" priority="247" operator="equal">
+      <formula>$L$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22:R22;T22:V22">
+    <cfRule type="cellIs" dxfId="0" priority="203" operator="equal">
+      <formula>$W$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA22:AC22;AE22:AG22">
+    <cfRule type="cellIs" dxfId="0" priority="159" operator="equal">
+      <formula>$AH$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:G23;I23:K23">
+    <cfRule type="cellIs" dxfId="0" priority="246" operator="equal">
+      <formula>$L$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23:R23;T23:V23">
+    <cfRule type="cellIs" dxfId="0" priority="202" operator="equal">
+      <formula>$W$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA23:AC23;AE23:AG23">
+    <cfRule type="cellIs" dxfId="0" priority="158" operator="equal">
+      <formula>$AH$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:G24;I24:K24">
+    <cfRule type="cellIs" dxfId="0" priority="245" operator="equal">
+      <formula>$L$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24:R24;T24:V24">
+    <cfRule type="cellIs" dxfId="0" priority="201" operator="equal">
+      <formula>$W$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA24:AC24;AE24:AG24">
+    <cfRule type="cellIs" dxfId="0" priority="157" operator="equal">
+      <formula>$AH$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:G25;I25:K25">
+    <cfRule type="cellIs" dxfId="0" priority="244" operator="equal">
+      <formula>$L$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:R25;T25:V25">
+    <cfRule type="cellIs" dxfId="0" priority="200" operator="equal">
+      <formula>$W$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25:AC25;AE25:AG25">
+    <cfRule type="cellIs" dxfId="0" priority="156" operator="equal">
+      <formula>$AH$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:G26;I26:K26">
+    <cfRule type="cellIs" dxfId="0" priority="243" operator="equal">
+      <formula>$L$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:R26;T26:V26">
+    <cfRule type="cellIs" dxfId="0" priority="199" operator="equal">
+      <formula>$W$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA26:AC26;AE26:AG26">
+    <cfRule type="cellIs" dxfId="0" priority="155" operator="equal">
+      <formula>$AH$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:G27;I27:K27">
+    <cfRule type="cellIs" dxfId="0" priority="242" operator="equal">
+      <formula>$L$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:R27;T27:V27">
+    <cfRule type="cellIs" dxfId="0" priority="198" operator="equal">
+      <formula>$W$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA27:AC27;AE27:AG27">
+    <cfRule type="cellIs" dxfId="0" priority="154" operator="equal">
+      <formula>$AH$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:G28;I28:K28">
+    <cfRule type="cellIs" dxfId="0" priority="241" operator="equal">
+      <formula>$L$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28:R28;T28:V28">
+    <cfRule type="cellIs" dxfId="0" priority="197" operator="equal">
+      <formula>$W$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA28:AC28;AE28:AG28">
+    <cfRule type="cellIs" dxfId="0" priority="153" operator="equal">
+      <formula>$AH$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:G29;I29:K29">
+    <cfRule type="cellIs" dxfId="0" priority="240" operator="equal">
+      <formula>$L$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29:R29;T29:V29">
+    <cfRule type="cellIs" dxfId="0" priority="196" operator="equal">
+      <formula>$W$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA29:AC29;AE29:AG29">
+    <cfRule type="cellIs" dxfId="0" priority="152" operator="equal">
+      <formula>$AH$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:G30;I30:K30">
+    <cfRule type="cellIs" dxfId="0" priority="239" operator="equal">
+      <formula>$L$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30:R30;T30:V30">
+    <cfRule type="cellIs" dxfId="0" priority="195" operator="equal">
+      <formula>$W$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA30:AC30;AE30:AG30">
+    <cfRule type="cellIs" dxfId="0" priority="151" operator="equal">
+      <formula>$AH$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:G31;I31:K31">
+    <cfRule type="cellIs" dxfId="0" priority="238" operator="equal">
+      <formula>$L$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31:R31;T31:V31">
+    <cfRule type="cellIs" dxfId="0" priority="194" operator="equal">
+      <formula>$W$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA31:AC31;AE31:AG31">
+    <cfRule type="cellIs" dxfId="0" priority="150" operator="equal">
+      <formula>$AH$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:G32;I32:K32">
+    <cfRule type="cellIs" dxfId="0" priority="237" operator="equal">
+      <formula>$L$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32:R32;T32:V32">
+    <cfRule type="cellIs" dxfId="0" priority="193" operator="equal">
+      <formula>$W$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA32:AC32;AE32:AG32">
+    <cfRule type="cellIs" dxfId="0" priority="149" operator="equal">
+      <formula>$AH$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:G33;I33:K33">
+    <cfRule type="cellIs" dxfId="0" priority="236" operator="equal">
+      <formula>$L$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33:R33;T33:V33">
+    <cfRule type="cellIs" dxfId="0" priority="192" operator="equal">
+      <formula>$W$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA33:AC33;AE33:AG33">
+    <cfRule type="cellIs" dxfId="0" priority="148" operator="equal">
+      <formula>$AH$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:G34;I34:K34">
+    <cfRule type="cellIs" dxfId="0" priority="235" operator="equal">
+      <formula>$L$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:R34;T34:V34">
+    <cfRule type="cellIs" dxfId="0" priority="191" operator="equal">
+      <formula>$W$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA34:AC34;AE34:AG34">
+    <cfRule type="cellIs" dxfId="0" priority="147" operator="equal">
+      <formula>$AH$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:G35;I35:K35">
+    <cfRule type="cellIs" dxfId="0" priority="234" operator="equal">
+      <formula>$L$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:R35;T35:V35">
+    <cfRule type="cellIs" dxfId="0" priority="190" operator="equal">
+      <formula>$W$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA35:AC35;AE35:AG35">
+    <cfRule type="cellIs" dxfId="0" priority="146" operator="equal">
+      <formula>$AH$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:G36;I36:K36">
+    <cfRule type="cellIs" dxfId="0" priority="233" operator="equal">
+      <formula>$L$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:R36;T36:V36">
+    <cfRule type="cellIs" dxfId="0" priority="189" operator="equal">
+      <formula>$W$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA36:AC36;AE36:AG36">
+    <cfRule type="cellIs" dxfId="0" priority="145" operator="equal">
+      <formula>$AH$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:G37;I37:K37">
+    <cfRule type="cellIs" dxfId="0" priority="232" operator="equal">
+      <formula>$L$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:R37;T37:V37">
+    <cfRule type="cellIs" dxfId="0" priority="188" operator="equal">
+      <formula>$W$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA37:AC37;AE37:AG37">
+    <cfRule type="cellIs" dxfId="0" priority="144" operator="equal">
+      <formula>$AH$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:G38;I38:K38">
+    <cfRule type="cellIs" dxfId="0" priority="231" operator="equal">
+      <formula>$L$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:R38;T38:V38">
+    <cfRule type="cellIs" dxfId="0" priority="187" operator="equal">
+      <formula>$W$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA38:AC38;AE38:AG38">
+    <cfRule type="cellIs" dxfId="0" priority="143" operator="equal">
+      <formula>$AH$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:G39;I39:K39">
+    <cfRule type="cellIs" dxfId="0" priority="230" operator="equal">
+      <formula>$L$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:R39;T39:V39">
+    <cfRule type="cellIs" dxfId="0" priority="186" operator="equal">
+      <formula>$W$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA39:AC39;AE39:AG39">
+    <cfRule type="cellIs" dxfId="0" priority="142" operator="equal">
+      <formula>$AH$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:G40;I40:K40">
+    <cfRule type="cellIs" dxfId="0" priority="229" operator="equal">
+      <formula>$L$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:R40;T40:V40">
+    <cfRule type="cellIs" dxfId="0" priority="185" operator="equal">
+      <formula>$W$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA40:AC40;AE40:AG40">
+    <cfRule type="cellIs" dxfId="0" priority="141" operator="equal">
+      <formula>$AH$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:G41;I41:K41">
+    <cfRule type="cellIs" dxfId="0" priority="228" operator="equal">
+      <formula>$L$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:R41;T41:V41">
+    <cfRule type="cellIs" dxfId="0" priority="184" operator="equal">
+      <formula>$W$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA41:AC41;AE41:AG41">
+    <cfRule type="cellIs" dxfId="0" priority="140" operator="equal">
+      <formula>$AH$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:G42;I42:K42">
+    <cfRule type="cellIs" dxfId="0" priority="227" operator="equal">
+      <formula>$L$42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P42:R42;T42:V42">
+    <cfRule type="cellIs" dxfId="0" priority="183" operator="equal">
+      <formula>$W$42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA42:AC42;AE42:AG42">
+    <cfRule type="cellIs" dxfId="0" priority="139" operator="equal">
+      <formula>$AH$42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:G43;I43:K43">
+    <cfRule type="cellIs" dxfId="0" priority="226" operator="equal">
+      <formula>$L$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43:R43;T43:V43">
+    <cfRule type="cellIs" dxfId="0" priority="182" operator="equal">
+      <formula>$W$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA43:AC43;AE43:AG43">
+    <cfRule type="cellIs" dxfId="0" priority="138" operator="equal">
+      <formula>$AH$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:G44;I44:K44">
+    <cfRule type="cellIs" dxfId="0" priority="225" operator="equal">
+      <formula>$L$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44:R44;T44:V44">
+    <cfRule type="cellIs" dxfId="0" priority="181" operator="equal">
+      <formula>$W$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA44:AC44;AE44:AG44">
+    <cfRule type="cellIs" dxfId="0" priority="137" operator="equal">
+      <formula>$AH$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:G45;I45:K45">
+    <cfRule type="cellIs" dxfId="0" priority="224" operator="equal">
+      <formula>$L$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P45:R45;T45:V45">
+    <cfRule type="cellIs" dxfId="0" priority="180" operator="equal">
+      <formula>$W$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA45:AC45;AE45:AG45">
+    <cfRule type="cellIs" dxfId="0" priority="136" operator="equal">
+      <formula>$AH$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:G46;I46:K46">
+    <cfRule type="cellIs" dxfId="0" priority="223" operator="equal">
+      <formula>$L$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P46:R46;T46:V46">
+    <cfRule type="cellIs" dxfId="0" priority="179" operator="equal">
+      <formula>$W$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA46:AC46;AE46:AG46">
+    <cfRule type="cellIs" dxfId="0" priority="135" operator="equal">
+      <formula>$AH$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:G47;I47:K47">
+    <cfRule type="cellIs" dxfId="0" priority="222" operator="equal">
+      <formula>$L$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P47:R47;T47:V47">
+    <cfRule type="cellIs" dxfId="0" priority="178" operator="equal">
+      <formula>$W$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA47:AC47;AE47:AG47">
+    <cfRule type="cellIs" dxfId="0" priority="134" operator="equal">
+      <formula>$AH$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:G48;I48:K48">
+    <cfRule type="cellIs" dxfId="0" priority="221" operator="equal">
+      <formula>"456.58"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P48:R48;T48:V48">
+    <cfRule type="cellIs" dxfId="0" priority="177" operator="equal">
+      <formula>$W$48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA48:AC48;AE48:AG48">
+    <cfRule type="cellIs" dxfId="0" priority="133" operator="equal">
+      <formula>$AH$48</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
